--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41733.76370868977</v>
+        <v>-42530.58570037443</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736557</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>63.7505639202756</v>
       </c>
       <c r="C11" t="n">
         <v>275.9663415735519</v>
       </c>
       <c r="D11" t="n">
-        <v>266.9476456180798</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>307.8615992759625</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>309.2387866162134</v>
@@ -1388,7 +1388,7 @@
         <v>221.6500221455605</v>
       </c>
       <c r="I11" t="n">
-        <v>47.50265161596182</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>70.53692041243103</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>117.5330346603111</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>150.1439169716033</v>
       </c>
       <c r="V11" t="n">
-        <v>228.0353782611873</v>
+        <v>231.4614018560492</v>
       </c>
       <c r="W11" t="n">
         <v>256.7615013340061</v>
@@ -1436,7 +1436,7 @@
         <v>276.0617595667528</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>287.4583573629515</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.67716884647943</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>125.4258365668183</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1458,7 +1458,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>31.19878056265557</v>
       </c>
       <c r="G12" t="n">
         <v>127.1436856486465</v>
@@ -1467,7 +1467,7 @@
         <v>96.0649719449067</v>
       </c>
       <c r="I12" t="n">
-        <v>57.45457988153603</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.71350879740527</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S12" t="n">
-        <v>53.62963599332847</v>
+        <v>145.7450153395004</v>
       </c>
       <c r="T12" t="n">
-        <v>185.5990008101073</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U12" t="n">
         <v>216.2902701797583</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.57173549056718</v>
+        <v>79.57173549056719</v>
       </c>
       <c r="C13" t="n">
-        <v>65.77173033596766</v>
+        <v>65.77173033596767</v>
       </c>
       <c r="D13" t="n">
-        <v>49.39309473354605</v>
+        <v>49.39309473354557</v>
       </c>
       <c r="E13" t="n">
-        <v>48.3408445893255</v>
+        <v>48.34084458932551</v>
       </c>
       <c r="F13" t="n">
-        <v>48.80776891751181</v>
+        <v>48.80776891751182</v>
       </c>
       <c r="G13" t="n">
         <v>64.83303304466932</v>
       </c>
       <c r="H13" t="n">
-        <v>53.41310339683967</v>
+        <v>53.41310339683969</v>
       </c>
       <c r="I13" t="n">
-        <v>33.11163563200111</v>
+        <v>33.11163563200112</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66281782056605</v>
+        <v>34.66281782056606</v>
       </c>
       <c r="S13" t="n">
         <v>105.0775510537181</v>
@@ -1591,10 +1591,10 @@
         <v>181.146757960806</v>
       </c>
       <c r="X13" t="n">
-        <v>126.7918599566091</v>
+        <v>126.7918599566092</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.6667277126766</v>
+        <v>117.6667277126768</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>275.9663415735519</v>
       </c>
       <c r="D14" t="n">
-        <v>266.9476456180798</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>288.6897831879854</v>
       </c>
       <c r="F14" t="n">
-        <v>87.08403861079103</v>
+        <v>307.8615992759625</v>
       </c>
       <c r="G14" t="n">
-        <v>309.2387866162134</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>221.6500221455605</v>
       </c>
       <c r="I14" t="n">
-        <v>47.5026516159618</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.536920412431</v>
+        <v>70.53692041243106</v>
       </c>
       <c r="T14" t="n">
         <v>117.5330346603111</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>150.1439169716033</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.402702675672501</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>256.7615013340061</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>276.0617595667528</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.4583573629515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>57.938556524486</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
@@ -1695,16 +1695,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>41.23148072345188</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1436856486465</v>
+        <v>24.99560614167764</v>
       </c>
       <c r="H15" t="n">
         <v>96.0649719449067</v>
       </c>
       <c r="I15" t="n">
-        <v>57.45457988153601</v>
+        <v>57.45457988153603</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.71350879740524</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S15" t="n">
         <v>145.7450153395004</v>
@@ -1746,7 +1746,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>146.7873307328512</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.57173549056718</v>
+        <v>79.57173549056721</v>
       </c>
       <c r="C16" t="n">
-        <v>65.77173033596766</v>
+        <v>65.77173033596769</v>
       </c>
       <c r="D16" t="n">
-        <v>49.39309473354605</v>
+        <v>49.39309473354608</v>
       </c>
       <c r="E16" t="n">
-        <v>48.3408445893255</v>
+        <v>48.34084458932553</v>
       </c>
       <c r="F16" t="n">
-        <v>48.80776891751181</v>
+        <v>48.80776891751184</v>
       </c>
       <c r="G16" t="n">
-        <v>64.83303304466931</v>
+        <v>64.83303304466934</v>
       </c>
       <c r="H16" t="n">
-        <v>53.41310339683967</v>
+        <v>53.4131033968397</v>
       </c>
       <c r="I16" t="n">
-        <v>33.1116356320011</v>
+        <v>33.11163563200112</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66281782056604</v>
+        <v>34.66281782056608</v>
       </c>
       <c r="S16" t="n">
         <v>105.0775510537181</v>
       </c>
       <c r="T16" t="n">
-        <v>127.6333010612413</v>
+        <v>127.6333010612414</v>
       </c>
       <c r="U16" t="n">
         <v>182.156651867321</v>
@@ -1828,10 +1828,10 @@
         <v>181.146757960806</v>
       </c>
       <c r="X16" t="n">
-        <v>126.7918599566091</v>
+        <v>126.7918599566092</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.6667277126768</v>
+        <v>117.6667277126769</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>218.1528627755543</v>
       </c>
       <c r="F17" t="n">
-        <v>237.3246788635315</v>
+        <v>137.1380758599433</v>
       </c>
       <c r="G17" t="n">
         <v>238.7018662037823</v>
@@ -1898,10 +1898,10 @@
         <v>46.99611424788002</v>
       </c>
       <c r="U17" t="n">
-        <v>79.60699655917229</v>
+        <v>79.6069965591723</v>
       </c>
       <c r="V17" t="n">
-        <v>60.73787844002942</v>
+        <v>160.9244814436182</v>
       </c>
       <c r="W17" t="n">
         <v>186.2245809215751</v>
@@ -1929,16 +1929,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>47.35924293546329</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>127.1436856486465</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>35.14837316138977</v>
       </c>
       <c r="I18" t="n">
         <v>57.45457988153603</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.71350879740527</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S18" t="n">
         <v>145.7450153395004</v>
       </c>
       <c r="T18" t="n">
-        <v>185.5990008101073</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U18" t="n">
         <v>216.2902701797583</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>46.93215847828932</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.54063064128704</v>
+        <v>207.2256305606869</v>
       </c>
       <c r="T19" t="n">
         <v>57.0963806488103</v>
@@ -2059,7 +2059,7 @@
         <v>111.6197314548899</v>
       </c>
       <c r="V19" t="n">
-        <v>85.44295147776174</v>
+        <v>132.3751099560513</v>
       </c>
       <c r="W19" t="n">
         <v>110.609837548375</v>
@@ -2068,7 +2068,7 @@
         <v>56.25493954417811</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>47.1298073002458</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2084,13 @@
         <v>205.4294211611208</v>
       </c>
       <c r="D20" t="n">
-        <v>96.22412220206022</v>
+        <v>196.4107252056488</v>
       </c>
       <c r="E20" t="n">
         <v>218.1528627755543</v>
       </c>
       <c r="F20" t="n">
-        <v>237.3246788635315</v>
+        <v>137.1380758599433</v>
       </c>
       <c r="G20" t="n">
         <v>238.7018662037823</v>
@@ -2135,7 +2135,7 @@
         <v>46.99611424788002</v>
       </c>
       <c r="U20" t="n">
-        <v>79.60699655917229</v>
+        <v>79.6069965591723</v>
       </c>
       <c r="V20" t="n">
         <v>160.9244814436182</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61.72987817924869</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -2166,7 +2166,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>104.8138228169989</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
@@ -2175,7 +2175,7 @@
         <v>127.1436856486465</v>
       </c>
       <c r="H21" t="n">
-        <v>96.0649719449067</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S21" t="n">
         <v>145.7450153395004</v>
       </c>
       <c r="T21" t="n">
-        <v>185.5990008101073</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U21" t="n">
         <v>216.2902701797583</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>34.54063064128704</v>
       </c>
       <c r="T22" t="n">
-        <v>57.0963806488103</v>
+        <v>104.0285391270998</v>
       </c>
       <c r="U22" t="n">
         <v>111.6197314548899</v>
@@ -2302,10 +2302,10 @@
         <v>110.609837548375</v>
       </c>
       <c r="X22" t="n">
-        <v>124.3309237013524</v>
+        <v>56.25493954417811</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.1298073002458</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1436856486465</v>
+        <v>90.52140968062784</v>
       </c>
       <c r="H24" t="n">
         <v>96.0649719449067</v>
       </c>
       <c r="I24" t="n">
-        <v>57.45457988153603</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S24" t="n">
         <v>145.7450153395004</v>
       </c>
       <c r="T24" t="n">
-        <v>132.2356537579577</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U24" t="n">
         <v>216.2902701797583</v>
@@ -2530,16 +2530,16 @@
         <v>57.0963806488103</v>
       </c>
       <c r="U25" t="n">
-        <v>111.6197314548899</v>
+        <v>284.3047313742898</v>
       </c>
       <c r="V25" t="n">
         <v>85.44295147776174</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>110.609837548375</v>
       </c>
       <c r="X25" t="n">
-        <v>103.1870980224675</v>
+        <v>103.1870980224676</v>
       </c>
       <c r="Y25" t="n">
         <v>47.1298073002458</v>
@@ -2567,7 +2567,7 @@
         <v>307.8615992759625</v>
       </c>
       <c r="G26" t="n">
-        <v>309.2387866162133</v>
+        <v>309.2387866162134</v>
       </c>
       <c r="H26" t="n">
         <v>221.6500221455605</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.71350879740527</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S27" t="n">
         <v>145.7450153395004</v>
       </c>
       <c r="T27" t="n">
-        <v>185.5990008101073</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U27" t="n">
         <v>216.2902701797583</v>
@@ -2725,13 +2725,13 @@
         <v>48.80776891751179</v>
       </c>
       <c r="G28" t="n">
-        <v>64.83303304466931</v>
+        <v>64.83303304466929</v>
       </c>
       <c r="H28" t="n">
         <v>53.41310339683966</v>
       </c>
       <c r="I28" t="n">
-        <v>33.1116356320011</v>
+        <v>33.11163563200108</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66281782056604</v>
+        <v>34.66281782056603</v>
       </c>
       <c r="S28" t="n">
         <v>105.0775510537181</v>
@@ -2804,7 +2804,7 @@
         <v>307.8615992759625</v>
       </c>
       <c r="G29" t="n">
-        <v>309.2387866162133</v>
+        <v>309.2387866162134</v>
       </c>
       <c r="H29" t="n">
         <v>221.6500221455605</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.71350879740527</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S30" t="n">
         <v>145.7450153395004</v>
       </c>
       <c r="T30" t="n">
-        <v>185.5990008101073</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U30" t="n">
         <v>216.2902701797583</v>
@@ -2968,7 +2968,7 @@
         <v>53.41310339683966</v>
       </c>
       <c r="I31" t="n">
-        <v>33.1116356320011</v>
+        <v>33.11163563200108</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66281782056604</v>
+        <v>34.66281782056603</v>
       </c>
       <c r="S31" t="n">
         <v>105.0775510537181</v>
@@ -3029,25 +3029,25 @@
         <v>287.9550246158701</v>
       </c>
       <c r="C32" t="n">
-        <v>275.9663415735518</v>
+        <v>275.9663415735519</v>
       </c>
       <c r="D32" t="n">
         <v>266.9476456180798</v>
       </c>
       <c r="E32" t="n">
-        <v>288.6897831879853</v>
+        <v>288.6897831879854</v>
       </c>
       <c r="F32" t="n">
         <v>307.8615992759625</v>
       </c>
       <c r="G32" t="n">
-        <v>309.2387866162133</v>
+        <v>309.2387866162134</v>
       </c>
       <c r="H32" t="n">
         <v>221.6500221455605</v>
       </c>
       <c r="I32" t="n">
-        <v>47.50265161596178</v>
+        <v>47.50265161596185</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.53692041243099</v>
+        <v>70.53692041243106</v>
       </c>
       <c r="T32" t="n">
-        <v>117.533034660311</v>
+        <v>117.5330346603111</v>
       </c>
       <c r="U32" t="n">
         <v>150.1439169716033</v>
@@ -3092,7 +3092,7 @@
         <v>256.7615013340061</v>
       </c>
       <c r="X32" t="n">
-        <v>276.0617595667527</v>
+        <v>276.0617595667528</v>
       </c>
       <c r="Y32" t="n">
         <v>287.4583573629515</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.71350879740527</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S33" t="n">
         <v>145.7450153395004</v>
       </c>
       <c r="T33" t="n">
-        <v>185.5990008101073</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U33" t="n">
         <v>216.2902701797583</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.57173549056714</v>
+        <v>79.57173549056721</v>
       </c>
       <c r="C34" t="n">
-        <v>65.77173033596762</v>
+        <v>65.77173033596769</v>
       </c>
       <c r="D34" t="n">
-        <v>49.39309473354601</v>
+        <v>49.39309473354608</v>
       </c>
       <c r="E34" t="n">
-        <v>48.34084458932546</v>
+        <v>48.34084458932553</v>
       </c>
       <c r="F34" t="n">
-        <v>48.80776891751177</v>
+        <v>48.80776891751184</v>
       </c>
       <c r="G34" t="n">
-        <v>64.83303304466928</v>
+        <v>64.83303304466934</v>
       </c>
       <c r="H34" t="n">
-        <v>53.41310339683963</v>
+        <v>53.4131033968397</v>
       </c>
       <c r="I34" t="n">
-        <v>33.11163563200107</v>
+        <v>33.11163563200114</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66281782056601</v>
+        <v>34.66281782056608</v>
       </c>
       <c r="S34" t="n">
-        <v>105.077551053718</v>
+        <v>105.0775510537181</v>
       </c>
       <c r="T34" t="n">
         <v>127.6333010612413</v>
       </c>
       <c r="U34" t="n">
-        <v>182.1566518673209</v>
+        <v>182.156651867321</v>
       </c>
       <c r="V34" t="n">
-        <v>155.9798718901927</v>
+        <v>155.9798718901928</v>
       </c>
       <c r="W34" t="n">
         <v>181.146757960806</v>
       </c>
       <c r="X34" t="n">
-        <v>126.7918599566091</v>
+        <v>126.7918599566092</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.6667277126768</v>
+        <v>117.6667277126769</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.53187815334487</v>
+        <v>21.53187815334488</v>
       </c>
       <c r="T35" t="n">
         <v>68.52799240122491</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.71350879740527</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S36" t="n">
         <v>145.7450153395004</v>
       </c>
       <c r="T36" t="n">
-        <v>185.5990008101073</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U36" t="n">
         <v>216.2902701797583</v>
@@ -3439,7 +3439,7 @@
         <v>15.82799078558316</v>
       </c>
       <c r="H37" t="n">
-        <v>4.408061137753519</v>
+        <v>4.408061137753518</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>66.04384949088391</v>
+        <v>66.04384949088414</v>
       </c>
       <c r="T37" t="n">
         <v>78.62825880215517</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>238.9499823567839</v>
+        <v>238.9499823567841</v>
       </c>
       <c r="C38" t="n">
-        <v>226.9612993144657</v>
+        <v>226.9612993144658</v>
       </c>
       <c r="D38" t="n">
-        <v>217.9426033589937</v>
+        <v>217.9426033589938</v>
       </c>
       <c r="E38" t="n">
-        <v>239.6847409288992</v>
+        <v>239.6847409288993</v>
       </c>
       <c r="F38" t="n">
-        <v>258.8565570168764</v>
+        <v>258.8565570168765</v>
       </c>
       <c r="G38" t="n">
-        <v>260.2337443571272</v>
+        <v>260.2337443571273</v>
       </c>
       <c r="H38" t="n">
-        <v>172.6449798864743</v>
+        <v>172.6449798864745</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.53187815334487</v>
+        <v>21.53187815334499</v>
       </c>
       <c r="T38" t="n">
-        <v>68.52799240122491</v>
+        <v>68.52799240122502</v>
       </c>
       <c r="U38" t="n">
-        <v>101.1388747125172</v>
+        <v>101.1388747125173</v>
       </c>
       <c r="V38" t="n">
-        <v>182.4563595969631</v>
+        <v>182.4563595969632</v>
       </c>
       <c r="W38" t="n">
-        <v>207.75645907492</v>
+        <v>207.7564590749201</v>
       </c>
       <c r="X38" t="n">
-        <v>227.0567173076666</v>
+        <v>227.0567173076667</v>
       </c>
       <c r="Y38" t="n">
-        <v>238.4533151038654</v>
+        <v>238.4533151038655</v>
       </c>
     </row>
     <row r="39">
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.71350879740527</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S39" t="n">
         <v>145.7450153395004</v>
       </c>
       <c r="T39" t="n">
-        <v>185.5990008101073</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U39" t="n">
         <v>216.2902701797583</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.56669323148103</v>
+        <v>30.56669323148114</v>
       </c>
       <c r="C40" t="n">
-        <v>16.76668807688151</v>
+        <v>16.76668807688162</v>
       </c>
       <c r="D40" t="n">
-        <v>10.35939317071198</v>
+        <v>0.3880524744600109</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.82799078558316</v>
+        <v>15.82799078558327</v>
       </c>
       <c r="H40" t="n">
-        <v>4.408061137753519</v>
+        <v>4.408061137753632</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.07250879463192</v>
+        <v>56.07250879463204</v>
       </c>
       <c r="T40" t="n">
-        <v>78.62825880215517</v>
+        <v>78.62825880215529</v>
       </c>
       <c r="U40" t="n">
-        <v>133.1516096082348</v>
+        <v>133.1516096082349</v>
       </c>
       <c r="V40" t="n">
-        <v>106.9748296311066</v>
+        <v>116.9461703273577</v>
       </c>
       <c r="W40" t="n">
-        <v>132.1417157017199</v>
+        <v>132.14171570172</v>
       </c>
       <c r="X40" t="n">
-        <v>77.78681769752299</v>
+        <v>77.78681769752311</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.66168545359068</v>
+        <v>68.66168545359079</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>238.9499823567838</v>
+        <v>238.9499823567839</v>
       </c>
       <c r="C41" t="n">
-        <v>226.9612993144655</v>
+        <v>226.9612993144656</v>
       </c>
       <c r="D41" t="n">
-        <v>217.9426033589935</v>
+        <v>217.9426033589936</v>
       </c>
       <c r="E41" t="n">
         <v>239.6847409288991</v>
       </c>
       <c r="F41" t="n">
-        <v>258.8565570168762</v>
+        <v>258.8565570168763</v>
       </c>
       <c r="G41" t="n">
-        <v>260.233744357127</v>
+        <v>260.2337443571271</v>
       </c>
       <c r="H41" t="n">
-        <v>172.6449798864742</v>
+        <v>172.6449798864743</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.53187815334473</v>
+        <v>21.53187815334481</v>
       </c>
       <c r="T41" t="n">
-        <v>68.52799240122476</v>
+        <v>68.52799240122485</v>
       </c>
       <c r="U41" t="n">
-        <v>101.138874712517</v>
+        <v>101.1388747125171</v>
       </c>
       <c r="V41" t="n">
-        <v>182.4563595969629</v>
+        <v>182.456359596963</v>
       </c>
       <c r="W41" t="n">
-        <v>207.7564590749198</v>
+        <v>207.7564590749199</v>
       </c>
       <c r="X41" t="n">
-        <v>227.0567173076664</v>
+        <v>227.0567173076665</v>
       </c>
       <c r="Y41" t="n">
-        <v>238.4533151038652</v>
+        <v>238.4533151038653</v>
       </c>
     </row>
     <row r="42">
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.71350879740527</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S42" t="n">
         <v>145.7450153395004</v>
       </c>
       <c r="T42" t="n">
-        <v>185.5990008101073</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U42" t="n">
         <v>216.2902701797583</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.56669323148088</v>
+        <v>30.56669323148097</v>
       </c>
       <c r="C43" t="n">
-        <v>16.76668807688137</v>
+        <v>16.76668807688145</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3880524744597551</v>
+        <v>0.3880524744598404</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15.82799078558302</v>
+        <v>15.8279907855831</v>
       </c>
       <c r="H43" t="n">
-        <v>4.408061137753377</v>
+        <v>4.408061137753461</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.07250879463178</v>
+        <v>56.07250879463187</v>
       </c>
       <c r="T43" t="n">
-        <v>78.62825880215503</v>
+        <v>78.62825880215512</v>
       </c>
       <c r="U43" t="n">
-        <v>133.1516096082347</v>
+        <v>133.1516096082348</v>
       </c>
       <c r="V43" t="n">
-        <v>106.9748296311065</v>
+        <v>106.9748296311066</v>
       </c>
       <c r="W43" t="n">
-        <v>132.1417157017197</v>
+        <v>132.1417157017198</v>
       </c>
       <c r="X43" t="n">
-        <v>87.75815839377665</v>
+        <v>77.78681769752293</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.66168545359054</v>
+        <v>78.63302614984366</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>238.9499823567838</v>
+        <v>238.9499823567839</v>
       </c>
       <c r="C44" t="n">
-        <v>226.9612993144655</v>
+        <v>226.9612993144656</v>
       </c>
       <c r="D44" t="n">
-        <v>217.9426033589935</v>
+        <v>217.9426033589936</v>
       </c>
       <c r="E44" t="n">
         <v>239.6847409288991</v>
       </c>
       <c r="F44" t="n">
-        <v>258.8565570168762</v>
+        <v>258.8565570168763</v>
       </c>
       <c r="G44" t="n">
-        <v>260.2337443571271</v>
+        <v>260.233744357128</v>
       </c>
       <c r="H44" t="n">
-        <v>172.6449798864742</v>
+        <v>172.6449798864743</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.53187815334473</v>
+        <v>21.53187815334482</v>
       </c>
       <c r="T44" t="n">
-        <v>68.52799240122476</v>
+        <v>68.52799240122485</v>
       </c>
       <c r="U44" t="n">
-        <v>101.138874712517</v>
+        <v>101.1388747125171</v>
       </c>
       <c r="V44" t="n">
-        <v>182.4563595969629</v>
+        <v>182.456359596963</v>
       </c>
       <c r="W44" t="n">
-        <v>207.7564590749198</v>
+        <v>207.7564590749199</v>
       </c>
       <c r="X44" t="n">
-        <v>227.0567173076664</v>
+        <v>227.0567173076665</v>
       </c>
       <c r="Y44" t="n">
-        <v>238.4533151038652</v>
+        <v>238.4533151038653</v>
       </c>
     </row>
     <row r="45">
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.71350879740527</v>
+        <v>40.71350879740525</v>
       </c>
       <c r="S45" t="n">
         <v>145.7450153395004</v>
       </c>
       <c r="T45" t="n">
-        <v>185.5990008101073</v>
+        <v>185.5990008101072</v>
       </c>
       <c r="U45" t="n">
         <v>216.2902701797583</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.56669323148088</v>
+        <v>30.56669323148097</v>
       </c>
       <c r="C46" t="n">
-        <v>16.76668807688137</v>
+        <v>16.76668807688145</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3880524744597551</v>
+        <v>0.3880524744598404</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>25.79933148183682</v>
+        <v>15.8279907855831</v>
       </c>
       <c r="H46" t="n">
-        <v>4.408061137753377</v>
+        <v>4.408061137753461</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.07250879463178</v>
+        <v>66.04384949088494</v>
       </c>
       <c r="T46" t="n">
-        <v>78.62825880215503</v>
+        <v>78.62825880215512</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1516096082347</v>
+        <v>133.1516096082348</v>
       </c>
       <c r="V46" t="n">
-        <v>106.9748296311065</v>
+        <v>106.9748296311066</v>
       </c>
       <c r="W46" t="n">
-        <v>132.1417157017197</v>
+        <v>132.1417157017198</v>
       </c>
       <c r="X46" t="n">
-        <v>77.78681769752285</v>
+        <v>77.78681769752293</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.66168545359054</v>
+        <v>68.66168545359062</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1490.203007665242</v>
+        <v>861.6051324026114</v>
       </c>
       <c r="C11" t="n">
-        <v>1211.449127287917</v>
+        <v>582.8512520252863</v>
       </c>
       <c r="D11" t="n">
-        <v>941.8050408050076</v>
+        <v>582.8512520252863</v>
       </c>
       <c r="E11" t="n">
-        <v>941.8050408050076</v>
+        <v>582.8512520252863</v>
       </c>
       <c r="F11" t="n">
-        <v>630.8337284050455</v>
+        <v>582.8512520252863</v>
       </c>
       <c r="G11" t="n">
-        <v>318.4713176815976</v>
+        <v>270.4888413018382</v>
       </c>
       <c r="H11" t="n">
-        <v>94.58240642345572</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="I11" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J11" t="n">
         <v>165.3231500838595</v>
       </c>
       <c r="K11" t="n">
-        <v>475.4916989812263</v>
+        <v>475.4916989812264</v>
       </c>
       <c r="L11" t="n">
-        <v>910.253217766784</v>
+        <v>910.2532177667841</v>
       </c>
       <c r="M11" t="n">
-        <v>1400.158835352999</v>
+        <v>1301.791365137387</v>
       </c>
       <c r="N11" t="n">
-        <v>1876.720809618076</v>
+        <v>1778.353339402464</v>
       </c>
       <c r="O11" t="n">
-        <v>1876.720809618076</v>
+        <v>2176.114308672687</v>
       </c>
       <c r="P11" t="n">
         <v>2176.114308672687</v>
       </c>
       <c r="Q11" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="R11" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="S11" t="n">
         <v>2258.747087626803</v>
       </c>
       <c r="T11" t="n">
-        <v>2258.747087626803</v>
+        <v>2140.026850596186</v>
       </c>
       <c r="U11" t="n">
-        <v>2258.747087626803</v>
+        <v>1988.366328402647</v>
       </c>
       <c r="V11" t="n">
-        <v>2028.408321706412</v>
+        <v>1754.566932588456</v>
       </c>
       <c r="W11" t="n">
-        <v>1769.053269853881</v>
+        <v>1495.211880735925</v>
       </c>
       <c r="X11" t="n">
-        <v>1490.203007665242</v>
+        <v>1216.361618547285</v>
       </c>
       <c r="Y11" t="n">
-        <v>1490.203007665242</v>
+        <v>925.9996414129907</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>912.3622674775912</v>
+        <v>716.1365514643171</v>
       </c>
       <c r="C12" t="n">
-        <v>750.6585947185459</v>
+        <v>589.4437872554097</v>
       </c>
       <c r="D12" t="n">
-        <v>611.819957708758</v>
+        <v>450.6051502456218</v>
       </c>
       <c r="E12" t="n">
-        <v>464.7919477656293</v>
+        <v>303.577140302493</v>
       </c>
       <c r="F12" t="n">
-        <v>330.0981497155036</v>
+        <v>272.0632205422348</v>
       </c>
       <c r="G12" t="n">
-        <v>201.6701844138405</v>
+        <v>143.6352552405718</v>
       </c>
       <c r="H12" t="n">
-        <v>104.634859216965</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="I12" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J12" t="n">
         <v>134.6829733677666</v>
       </c>
       <c r="K12" t="n">
-        <v>134.6829733677666</v>
+        <v>411.7375430651784</v>
       </c>
       <c r="L12" t="n">
-        <v>564.4605093431687</v>
+        <v>841.5150790405808</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.127137428113</v>
+        <v>1401.181707125525</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.801271718854</v>
+        <v>1509.371832500788</v>
       </c>
       <c r="O12" t="n">
-        <v>2163.083120475218</v>
+        <v>1971.653681257151</v>
       </c>
       <c r="P12" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="Q12" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="R12" t="n">
         <v>2288.871745823799</v>
       </c>
       <c r="S12" t="n">
-        <v>2234.700396335589</v>
+        <v>2141.654558612182</v>
       </c>
       <c r="T12" t="n">
-        <v>2047.226658143561</v>
+        <v>1954.180820420155</v>
       </c>
       <c r="U12" t="n">
-        <v>1828.751637759967</v>
+        <v>1735.705800036561</v>
       </c>
       <c r="V12" t="n">
-        <v>1600.356015208301</v>
+        <v>1507.310177484895</v>
       </c>
       <c r="W12" t="n">
-        <v>1359.040146441611</v>
+        <v>1265.994308718205</v>
       </c>
       <c r="X12" t="n">
-        <v>1161.123158319406</v>
+        <v>1068.077320595999</v>
       </c>
       <c r="Y12" t="n">
-        <v>968.6018319689846</v>
+        <v>875.5559942455781</v>
       </c>
     </row>
     <row r="13">
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.9445872657783</v>
+        <v>413.9445872657779</v>
       </c>
       <c r="C13" t="n">
-        <v>347.5084960173261</v>
+        <v>347.5084960173257</v>
       </c>
       <c r="D13" t="n">
         <v>297.6164811349564</v>
@@ -5188,25 +5188,25 @@
         <v>199.4865685017874</v>
       </c>
       <c r="G13" t="n">
-        <v>133.9986563354548</v>
+        <v>133.9986563354547</v>
       </c>
       <c r="H13" t="n">
-        <v>80.04602664167722</v>
+        <v>80.04602664167723</v>
       </c>
       <c r="I13" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J13" t="n">
-        <v>106.3233847407899</v>
+        <v>106.3233847407901</v>
       </c>
       <c r="K13" t="n">
-        <v>269.7445983011042</v>
+        <v>269.7445983011045</v>
       </c>
       <c r="L13" t="n">
-        <v>508.1921453377609</v>
+        <v>508.1921453377611</v>
       </c>
       <c r="M13" t="n">
-        <v>766.0218772938765</v>
+        <v>766.0218772938767</v>
       </c>
       <c r="N13" t="n">
         <v>1023.360016459429</v>
@@ -5233,16 +5233,16 @@
         <v>1081.779893337346</v>
       </c>
       <c r="V13" t="n">
-        <v>924.2244671856357</v>
+        <v>924.2244671856358</v>
       </c>
       <c r="W13" t="n">
         <v>741.2479439929024</v>
       </c>
       <c r="X13" t="n">
-        <v>613.1753581781458</v>
+        <v>613.1753581781456</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.3200776602906</v>
+        <v>494.3200776602902</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1558.80121223374</v>
+        <v>1151.819875683151</v>
       </c>
       <c r="C14" t="n">
-        <v>1280.047331856415</v>
+        <v>873.0659953058262</v>
       </c>
       <c r="D14" t="n">
-        <v>1010.403245373506</v>
+        <v>873.0659953058262</v>
       </c>
       <c r="E14" t="n">
-        <v>718.7974037694808</v>
+        <v>581.4601537018004</v>
       </c>
       <c r="F14" t="n">
-        <v>630.8337284050453</v>
+        <v>270.4888413018382</v>
       </c>
       <c r="G14" t="n">
-        <v>318.4713176815976</v>
+        <v>270.4888413018382</v>
       </c>
       <c r="H14" t="n">
-        <v>94.58240642345569</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="I14" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J14" t="n">
-        <v>69.80190387979627</v>
+        <v>165.3231500838595</v>
       </c>
       <c r="K14" t="n">
-        <v>69.80190387979627</v>
+        <v>475.4916989812264</v>
       </c>
       <c r="L14" t="n">
-        <v>504.5634226653542</v>
+        <v>910.2532177667841</v>
       </c>
       <c r="M14" t="n">
-        <v>994.4690402515696</v>
+        <v>1400.158835353</v>
       </c>
       <c r="N14" t="n">
         <v>1471.031014516646</v>
@@ -5297,31 +5297,31 @@
         <v>2176.114308672687</v>
       </c>
       <c r="Q14" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="R14" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="S14" t="n">
         <v>2258.747087626803</v>
       </c>
       <c r="T14" t="n">
-        <v>2140.026850596187</v>
+        <v>2140.026850596186</v>
       </c>
       <c r="U14" t="n">
-        <v>2140.026850596187</v>
+        <v>1988.366328402647</v>
       </c>
       <c r="V14" t="n">
-        <v>2140.026850596187</v>
+        <v>1980.888850952474</v>
       </c>
       <c r="W14" t="n">
-        <v>2140.026850596187</v>
+        <v>1721.533799099942</v>
       </c>
       <c r="X14" t="n">
-        <v>2140.026850596187</v>
+        <v>1442.683536911303</v>
       </c>
       <c r="Y14" t="n">
-        <v>1849.664873461892</v>
+        <v>1442.683536911303</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>809.1823891877237</v>
+        <v>716.1365514643171</v>
       </c>
       <c r="C15" t="n">
-        <v>750.6585947185459</v>
+        <v>554.4328787052718</v>
       </c>
       <c r="D15" t="n">
-        <v>611.819957708758</v>
+        <v>415.5942416954839</v>
       </c>
       <c r="E15" t="n">
-        <v>464.7919477656292</v>
+        <v>268.5662317523551</v>
       </c>
       <c r="F15" t="n">
-        <v>330.0981497155035</v>
+        <v>226.918271425636</v>
       </c>
       <c r="G15" t="n">
         <v>201.6701844138404</v>
@@ -5352,37 +5352,37 @@
         <v>104.634859216965</v>
       </c>
       <c r="I15" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J15" t="n">
         <v>134.6829733677666</v>
       </c>
       <c r="K15" t="n">
-        <v>411.7375430651786</v>
+        <v>411.7375430651784</v>
       </c>
       <c r="L15" t="n">
-        <v>639.9417249064552</v>
+        <v>841.5150790405808</v>
       </c>
       <c r="M15" t="n">
-        <v>1199.608352991399</v>
+        <v>1401.181707125525</v>
       </c>
       <c r="N15" t="n">
-        <v>1776.282487282141</v>
+        <v>1401.181707125525</v>
       </c>
       <c r="O15" t="n">
-        <v>1776.282487282141</v>
+        <v>1863.463555881888</v>
       </c>
       <c r="P15" t="n">
-        <v>2134.625308209804</v>
+        <v>2221.806376809552</v>
       </c>
       <c r="Q15" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="R15" t="n">
         <v>2288.871745823799</v>
       </c>
       <c r="S15" t="n">
-        <v>2141.654558612183</v>
+        <v>2141.654558612182</v>
       </c>
       <c r="T15" t="n">
         <v>1954.180820420155</v>
@@ -5394,13 +5394,13 @@
         <v>1507.310177484895</v>
       </c>
       <c r="W15" t="n">
-        <v>1359.040146441611</v>
+        <v>1265.994308718205</v>
       </c>
       <c r="X15" t="n">
-        <v>1161.123158319406</v>
+        <v>1068.077320595999</v>
       </c>
       <c r="Y15" t="n">
-        <v>968.6018319689847</v>
+        <v>875.5559942455781</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.9445872657785</v>
+        <v>413.9445872657779</v>
       </c>
       <c r="C16" t="n">
-        <v>347.5084960173264</v>
+        <v>347.5084960173257</v>
       </c>
       <c r="D16" t="n">
-        <v>297.6164811349566</v>
+        <v>297.6164811349559</v>
       </c>
       <c r="E16" t="n">
-        <v>248.7873451861429</v>
+        <v>248.7873451861423</v>
       </c>
       <c r="F16" t="n">
-        <v>199.4865685017876</v>
+        <v>199.4865685017867</v>
       </c>
       <c r="G16" t="n">
-        <v>133.9986563354549</v>
+        <v>133.9986563354547</v>
       </c>
       <c r="H16" t="n">
-        <v>80.0460266416772</v>
+        <v>80.04602664167726</v>
       </c>
       <c r="I16" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J16" t="n">
-        <v>106.3233847407902</v>
+        <v>106.3233847407899</v>
       </c>
       <c r="K16" t="n">
-        <v>269.7445983011046</v>
+        <v>269.7445983011044</v>
       </c>
       <c r="L16" t="n">
-        <v>508.1921453377613</v>
+        <v>508.192145337761</v>
       </c>
       <c r="M16" t="n">
-        <v>766.021877293877</v>
+        <v>766.0218772938766</v>
       </c>
       <c r="N16" t="n">
         <v>1023.360016459429</v>
@@ -5455,13 +5455,13 @@
         <v>1451.816564983269</v>
       </c>
       <c r="Q16" t="n">
-        <v>1535.850925461434</v>
+        <v>1535.850925461433</v>
       </c>
       <c r="R16" t="n">
-        <v>1500.837978167933</v>
+        <v>1500.837978167932</v>
       </c>
       <c r="S16" t="n">
-        <v>1394.699037709632</v>
+        <v>1394.699037709631</v>
       </c>
       <c r="T16" t="n">
         <v>1265.776511385145</v>
@@ -5470,16 +5470,16 @@
         <v>1081.779893337346</v>
       </c>
       <c r="V16" t="n">
-        <v>924.2244671856364</v>
+        <v>924.2244671856357</v>
       </c>
       <c r="W16" t="n">
-        <v>741.2479439929031</v>
+        <v>741.2479439929025</v>
       </c>
       <c r="X16" t="n">
-        <v>613.1753581781462</v>
+        <v>613.1753581781456</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.3200776602908</v>
+        <v>494.3200776602902</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1306.32988554144</v>
+        <v>1205.131296648928</v>
       </c>
       <c r="C17" t="n">
-        <v>1098.825419722127</v>
+        <v>997.6268308296139</v>
       </c>
       <c r="D17" t="n">
-        <v>900.4307477972287</v>
+        <v>799.2321589047165</v>
       </c>
       <c r="E17" t="n">
-        <v>680.0743207512143</v>
+        <v>578.875731858702</v>
       </c>
       <c r="F17" t="n">
-        <v>440.3524229092632</v>
+        <v>440.3524229092643</v>
       </c>
       <c r="G17" t="n">
         <v>199.2394267438271</v>
       </c>
       <c r="H17" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="I17" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J17" t="n">
         <v>165.3231500838595</v>
       </c>
       <c r="K17" t="n">
-        <v>165.3231500838595</v>
+        <v>475.4916989812264</v>
       </c>
       <c r="L17" t="n">
-        <v>600.0846688694172</v>
+        <v>910.2532177667841</v>
       </c>
       <c r="M17" t="n">
-        <v>994.46904025157</v>
+        <v>994.4690402515696</v>
       </c>
       <c r="N17" t="n">
-        <v>1471.031014516647</v>
+        <v>1471.031014516646</v>
       </c>
       <c r="O17" t="n">
         <v>1868.791983786869</v>
@@ -5534,31 +5534,31 @@
         <v>2176.114308672687</v>
       </c>
       <c r="Q17" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="R17" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="S17" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="T17" t="n">
         <v>2282.525679712208</v>
       </c>
       <c r="U17" t="n">
-        <v>2202.114572076681</v>
+        <v>2202.11457207668</v>
       </c>
       <c r="V17" t="n">
-        <v>2140.763179713013</v>
+        <v>2039.5645908205</v>
       </c>
       <c r="W17" t="n">
-        <v>1952.657542418493</v>
+        <v>1851.45895352598</v>
       </c>
       <c r="X17" t="n">
-        <v>1745.056694787864</v>
+        <v>1643.858105895352</v>
       </c>
       <c r="Y17" t="n">
-        <v>1525.944132211581</v>
+        <v>1424.745543319068</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>716.1365514643176</v>
+        <v>716.1365514643171</v>
       </c>
       <c r="C18" t="n">
-        <v>554.4328787052723</v>
+        <v>554.4328787052718</v>
       </c>
       <c r="D18" t="n">
-        <v>415.5942416954844</v>
+        <v>415.5942416954839</v>
       </c>
       <c r="E18" t="n">
-        <v>367.7566225687538</v>
+        <v>268.5662317523551</v>
       </c>
       <c r="F18" t="n">
-        <v>233.0628245186281</v>
+        <v>268.5662317523551</v>
       </c>
       <c r="G18" t="n">
-        <v>104.634859216965</v>
+        <v>140.138266450692</v>
       </c>
       <c r="H18" t="n">
         <v>104.634859216965</v>
       </c>
       <c r="I18" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J18" t="n">
         <v>134.6829733677666</v>
@@ -5598,13 +5598,13 @@
         <v>411.7375430651784</v>
       </c>
       <c r="L18" t="n">
-        <v>841.5150790405806</v>
+        <v>754.3340104408331</v>
       </c>
       <c r="M18" t="n">
-        <v>1199.608352991399</v>
+        <v>1314.000638525777</v>
       </c>
       <c r="N18" t="n">
-        <v>1776.282487282141</v>
+        <v>1314.000638525777</v>
       </c>
       <c r="O18" t="n">
         <v>1776.282487282141</v>
@@ -5613,13 +5613,13 @@
         <v>2134.625308209804</v>
       </c>
       <c r="Q18" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="R18" t="n">
         <v>2288.871745823799</v>
       </c>
       <c r="S18" t="n">
-        <v>2141.654558612183</v>
+        <v>2141.654558612182</v>
       </c>
       <c r="T18" t="n">
         <v>1954.180820420155</v>
@@ -5634,10 +5634,10 @@
         <v>1265.994308718205</v>
       </c>
       <c r="X18" t="n">
-        <v>1068.077320596</v>
+        <v>1068.077320595999</v>
       </c>
       <c r="Y18" t="n">
-        <v>875.5559942455785</v>
+        <v>875.5559942455781</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.00615072883703</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="C19" t="n">
-        <v>94.00615072883703</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="D19" t="n">
-        <v>94.00615072883703</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="E19" t="n">
-        <v>94.00615072883703</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="F19" t="n">
-        <v>94.00615072883703</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="G19" t="n">
-        <v>94.00615072883703</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="H19" t="n">
-        <v>94.00615072883703</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="I19" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J19" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="K19" t="n">
         <v>108.8945448921115</v>
       </c>
       <c r="L19" t="n">
-        <v>246.2154932168689</v>
+        <v>246.215493216869</v>
       </c>
       <c r="M19" t="n">
-        <v>402.9186264610854</v>
+        <v>402.9186264610855</v>
       </c>
       <c r="N19" t="n">
-        <v>559.1301669147383</v>
+        <v>559.1301669147384</v>
       </c>
       <c r="O19" t="n">
-        <v>692.4982547726693</v>
+        <v>692.4982547726695</v>
       </c>
       <c r="P19" t="n">
-        <v>785.3335180147805</v>
+        <v>785.3335180147807</v>
       </c>
       <c r="Q19" t="n">
-        <v>785.3335180147805</v>
+        <v>785.3335180147807</v>
       </c>
       <c r="R19" t="n">
-        <v>785.3335180147805</v>
+        <v>785.3335180147807</v>
       </c>
       <c r="S19" t="n">
-        <v>750.4439921144905</v>
+        <v>576.0146992666121</v>
       </c>
       <c r="T19" t="n">
-        <v>692.7708803480155</v>
+        <v>518.3415875001371</v>
       </c>
       <c r="U19" t="n">
-        <v>580.0236768582276</v>
+        <v>405.5943840103492</v>
       </c>
       <c r="V19" t="n">
-        <v>493.7176652645289</v>
+        <v>271.8821517315095</v>
       </c>
       <c r="W19" t="n">
-        <v>381.9905566298067</v>
+        <v>160.1550430967873</v>
       </c>
       <c r="X19" t="n">
-        <v>325.1673853730611</v>
+        <v>103.3318718400417</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.1322265653382</v>
+        <v>55.72600588019745</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1205.131296648927</v>
+        <v>1205.131296648928</v>
       </c>
       <c r="C20" t="n">
-        <v>997.6268308296133</v>
+        <v>997.6268308296137</v>
       </c>
       <c r="D20" t="n">
-        <v>900.4307477972292</v>
+        <v>799.2321589047159</v>
       </c>
       <c r="E20" t="n">
-        <v>680.0743207512147</v>
+        <v>578.8757318587014</v>
       </c>
       <c r="F20" t="n">
         <v>440.3524229092637</v>
@@ -5744,58 +5744,58 @@
         <v>199.2394267438271</v>
       </c>
       <c r="H20" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="I20" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J20" t="n">
-        <v>165.3231500838595</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="K20" t="n">
-        <v>475.4916989812263</v>
+        <v>356.7684789410632</v>
       </c>
       <c r="L20" t="n">
-        <v>910.253217766784</v>
+        <v>791.5299977266209</v>
       </c>
       <c r="M20" t="n">
-        <v>1400.158835352999</v>
+        <v>1281.435615312836</v>
       </c>
       <c r="N20" t="n">
-        <v>1876.720809618076</v>
+        <v>1471.031014516646</v>
       </c>
       <c r="O20" t="n">
-        <v>2274.481778888298</v>
+        <v>1868.791983786869</v>
       </c>
       <c r="P20" t="n">
-        <v>2329.996502184815</v>
+        <v>2176.114308672687</v>
       </c>
       <c r="Q20" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="R20" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="S20" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="T20" t="n">
-        <v>2282.525679712209</v>
+        <v>2282.525679712208</v>
       </c>
       <c r="U20" t="n">
-        <v>2202.114572076679</v>
+        <v>2202.11457207668</v>
       </c>
       <c r="V20" t="n">
-        <v>2039.564590820499</v>
+        <v>2039.5645908205</v>
       </c>
       <c r="W20" t="n">
-        <v>1851.458953525979</v>
+        <v>1851.45895352598</v>
       </c>
       <c r="X20" t="n">
-        <v>1643.85810589535</v>
+        <v>1643.858105895352</v>
       </c>
       <c r="Y20" t="n">
-        <v>1424.745543319067</v>
+        <v>1424.745543319068</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>854.3273383043226</v>
+        <v>716.1365514643171</v>
       </c>
       <c r="C21" t="n">
-        <v>692.6236655452773</v>
+        <v>554.4328787052718</v>
       </c>
       <c r="D21" t="n">
-        <v>553.7850285354893</v>
+        <v>415.5942416954839</v>
       </c>
       <c r="E21" t="n">
-        <v>406.7570185923605</v>
+        <v>309.721693395485</v>
       </c>
       <c r="F21" t="n">
-        <v>272.0632205422348</v>
+        <v>175.0278953453594</v>
       </c>
       <c r="G21" t="n">
-        <v>143.6352552405718</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="H21" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="I21" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J21" t="n">
         <v>134.6829733677666</v>
@@ -5835,46 +5835,46 @@
         <v>411.7375430651784</v>
       </c>
       <c r="L21" t="n">
-        <v>841.5150790405806</v>
+        <v>841.5150790405808</v>
       </c>
       <c r="M21" t="n">
         <v>1401.181707125525</v>
       </c>
       <c r="N21" t="n">
-        <v>1509.371832500788</v>
+        <v>1776.282487282141</v>
       </c>
       <c r="O21" t="n">
-        <v>1971.653681257152</v>
+        <v>1776.282487282141</v>
       </c>
       <c r="P21" t="n">
-        <v>2329.996502184815</v>
+        <v>2134.625308209804</v>
       </c>
       <c r="Q21" t="n">
-        <v>2329.996502184815</v>
+        <v>2329.996502184814</v>
       </c>
       <c r="R21" t="n">
-        <v>2329.996502184815</v>
+        <v>2288.871745823799</v>
       </c>
       <c r="S21" t="n">
-        <v>2182.779314973198</v>
+        <v>2141.654558612182</v>
       </c>
       <c r="T21" t="n">
-        <v>1995.305576781171</v>
+        <v>1954.180820420155</v>
       </c>
       <c r="U21" t="n">
-        <v>1776.830556397576</v>
+        <v>1735.705800036561</v>
       </c>
       <c r="V21" t="n">
-        <v>1548.43493384591</v>
+        <v>1507.310177484895</v>
       </c>
       <c r="W21" t="n">
-        <v>1307.11906507922</v>
+        <v>1265.994308718205</v>
       </c>
       <c r="X21" t="n">
-        <v>1109.202076957015</v>
+        <v>1068.077320595999</v>
       </c>
       <c r="Y21" t="n">
-        <v>916.680750606594</v>
+        <v>875.5559942455781</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>199.6718232159336</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="C22" t="n">
-        <v>199.6718232159336</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="D22" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="E22" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="F22" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="G22" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="H22" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="I22" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="J22" t="n">
-        <v>46.5999300436963</v>
+        <v>46.59993004369629</v>
       </c>
       <c r="K22" t="n">
         <v>108.8945448921115</v>
       </c>
       <c r="L22" t="n">
-        <v>246.2154932168689</v>
+        <v>246.215493216869</v>
       </c>
       <c r="M22" t="n">
-        <v>402.9186264610854</v>
+        <v>402.9186264610855</v>
       </c>
       <c r="N22" t="n">
-        <v>559.1301669147383</v>
+        <v>559.1301669147384</v>
       </c>
       <c r="O22" t="n">
-        <v>692.4982547726693</v>
+        <v>692.4982547726695</v>
       </c>
       <c r="P22" t="n">
-        <v>785.3335180147805</v>
+        <v>785.3335180147807</v>
       </c>
       <c r="Q22" t="n">
-        <v>785.3335180147805</v>
+        <v>785.3335180147807</v>
       </c>
       <c r="R22" t="n">
-        <v>785.3335180147805</v>
+        <v>785.3335180147807</v>
       </c>
       <c r="S22" t="n">
-        <v>750.4439921144905</v>
+        <v>750.4439921144907</v>
       </c>
       <c r="T22" t="n">
-        <v>692.7708803480155</v>
+        <v>645.3646596628747</v>
       </c>
       <c r="U22" t="n">
-        <v>580.0236768582276</v>
+        <v>532.6174561730869</v>
       </c>
       <c r="V22" t="n">
-        <v>493.7176652645289</v>
+        <v>446.3114445793882</v>
       </c>
       <c r="W22" t="n">
-        <v>381.9905566298067</v>
+        <v>334.584335944666</v>
       </c>
       <c r="X22" t="n">
-        <v>256.403765012279</v>
+        <v>277.7611646879204</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.7978990524348</v>
+        <v>55.72600588019745</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1100.890697046464</v>
       </c>
       <c r="D23" t="n">
-        <v>902.4960251215666</v>
+        <v>902.4960251215664</v>
       </c>
       <c r="E23" t="n">
-        <v>682.1395980755522</v>
+        <v>682.1395980755515</v>
       </c>
       <c r="F23" t="n">
-        <v>442.4177002336012</v>
+        <v>442.4177002336005</v>
       </c>
       <c r="G23" t="n">
         <v>201.3047040681641</v>
@@ -5990,19 +5990,19 @@
         <v>167.3884274081965</v>
       </c>
       <c r="K23" t="n">
-        <v>477.5569763055632</v>
+        <v>477.5569763055634</v>
       </c>
       <c r="L23" t="n">
-        <v>912.3184950911209</v>
+        <v>912.3184950911211</v>
       </c>
       <c r="M23" t="n">
-        <v>1402.224112677336</v>
+        <v>1402.224112677337</v>
       </c>
       <c r="N23" t="n">
         <v>1878.786086942413</v>
       </c>
       <c r="O23" t="n">
-        <v>2276.547056212635</v>
+        <v>1972.055850003718</v>
       </c>
       <c r="P23" t="n">
         <v>2279.378174889535</v>
@@ -6017,7 +6017,7 @@
         <v>2433.260368401663</v>
       </c>
       <c r="T23" t="n">
-        <v>2385.789545929058</v>
+        <v>2385.789545929057</v>
       </c>
       <c r="U23" t="n">
         <v>2305.37843829353</v>
@@ -6026,7 +6026,7 @@
         <v>2142.82845703735</v>
       </c>
       <c r="W23" t="n">
-        <v>1954.72281974283</v>
+        <v>1954.722819742829</v>
       </c>
       <c r="X23" t="n">
         <v>1747.121972112202</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>914.4275448019281</v>
+        <v>819.4004176811659</v>
       </c>
       <c r="C24" t="n">
-        <v>752.7238720428828</v>
+        <v>657.6967449221206</v>
       </c>
       <c r="D24" t="n">
-        <v>613.8852350330949</v>
+        <v>518.8581079123327</v>
       </c>
       <c r="E24" t="n">
-        <v>466.8572250899662</v>
+        <v>371.8300979692039</v>
       </c>
       <c r="F24" t="n">
-        <v>332.1634270398405</v>
+        <v>237.1362999190783</v>
       </c>
       <c r="G24" t="n">
-        <v>203.7354617381774</v>
+        <v>145.7005325649087</v>
       </c>
       <c r="H24" t="n">
-        <v>106.700136541302</v>
+        <v>48.66520736803326</v>
       </c>
       <c r="I24" t="n">
         <v>48.66520736803326</v>
@@ -6069,19 +6069,19 @@
         <v>48.66520736803326</v>
       </c>
       <c r="K24" t="n">
-        <v>325.7197770654451</v>
+        <v>325.7197770654452</v>
       </c>
       <c r="L24" t="n">
-        <v>755.4973130408473</v>
+        <v>755.4973130408475</v>
       </c>
       <c r="M24" t="n">
-        <v>1315.163941125792</v>
+        <v>829.390263345033</v>
       </c>
       <c r="N24" t="n">
-        <v>1775.607325670289</v>
+        <v>1417.264504742626</v>
       </c>
       <c r="O24" t="n">
-        <v>2237.889174426653</v>
+        <v>1879.546353498989</v>
       </c>
       <c r="P24" t="n">
         <v>2237.889174426653</v>
@@ -6090,28 +6090,28 @@
         <v>2433.260368401663</v>
       </c>
       <c r="R24" t="n">
-        <v>2433.260368401663</v>
+        <v>2392.135612040648</v>
       </c>
       <c r="S24" t="n">
-        <v>2286.043181190047</v>
+        <v>2244.918424829031</v>
       </c>
       <c r="T24" t="n">
-        <v>2152.471813757766</v>
+        <v>2057.444686637004</v>
       </c>
       <c r="U24" t="n">
-        <v>1933.996793374172</v>
+        <v>1838.969666253409</v>
       </c>
       <c r="V24" t="n">
-        <v>1705.601170822506</v>
+        <v>1610.574043701743</v>
       </c>
       <c r="W24" t="n">
-        <v>1464.285302055815</v>
+        <v>1369.258174935053</v>
       </c>
       <c r="X24" t="n">
-        <v>1266.36831393361</v>
+        <v>1171.341186812848</v>
       </c>
       <c r="Y24" t="n">
-        <v>1073.846987583189</v>
+        <v>978.8198604624268</v>
       </c>
     </row>
     <row r="25">
@@ -6151,37 +6151,37 @@
         <v>110.9598222164485</v>
       </c>
       <c r="L25" t="n">
-        <v>248.2807705412059</v>
+        <v>248.280770541206</v>
       </c>
       <c r="M25" t="n">
-        <v>404.9839037854224</v>
+        <v>404.9839037854225</v>
       </c>
       <c r="N25" t="n">
-        <v>561.1954442390753</v>
+        <v>561.1954442390754</v>
       </c>
       <c r="O25" t="n">
-        <v>694.5635320970063</v>
+        <v>694.5635320970064</v>
       </c>
       <c r="P25" t="n">
-        <v>787.3987953391174</v>
+        <v>787.3987953391176</v>
       </c>
       <c r="Q25" t="n">
-        <v>787.3987953391174</v>
+        <v>787.3987953391176</v>
       </c>
       <c r="R25" t="n">
-        <v>787.3987953391174</v>
+        <v>787.3987953391176</v>
       </c>
       <c r="S25" t="n">
-        <v>752.5092694388275</v>
+        <v>752.5092694388276</v>
       </c>
       <c r="T25" t="n">
-        <v>694.8361576723524</v>
+        <v>694.8361576723526</v>
       </c>
       <c r="U25" t="n">
-        <v>582.0889541825646</v>
+        <v>407.6596613346861</v>
       </c>
       <c r="V25" t="n">
-        <v>495.7829425888659</v>
+        <v>321.3536497409874</v>
       </c>
       <c r="W25" t="n">
         <v>209.6265411062651</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1805.210336393439</v>
+        <v>1805.21033639344</v>
       </c>
       <c r="C26" t="n">
-        <v>1526.456456016114</v>
+        <v>1526.456456016115</v>
       </c>
       <c r="D26" t="n">
-        <v>1256.812369533205</v>
+        <v>1256.812369533206</v>
       </c>
       <c r="E26" t="n">
-        <v>965.2065279291791</v>
+        <v>965.2065279291804</v>
       </c>
       <c r="F26" t="n">
-        <v>654.2352155292169</v>
+        <v>654.2352155292183</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8728048057691</v>
+        <v>341.8728048057704</v>
       </c>
       <c r="H26" t="n">
         <v>117.9838935476277</v>
       </c>
       <c r="I26" t="n">
-        <v>70.00141716786825</v>
+        <v>70.0014171678683</v>
       </c>
       <c r="J26" t="n">
-        <v>289.8512359199306</v>
+        <v>289.8512359199307</v>
       </c>
       <c r="K26" t="n">
-        <v>701.1463835291966</v>
+        <v>701.1463835291967</v>
       </c>
       <c r="L26" t="n">
-        <v>1223.25778357073</v>
+        <v>1237.034501026654</v>
       </c>
       <c r="M26" t="n">
-        <v>1814.289999868845</v>
+        <v>1726.940118612869</v>
       </c>
       <c r="N26" t="n">
-        <v>2391.978572845821</v>
+        <v>2290.851974133923</v>
       </c>
       <c r="O26" t="n">
-        <v>2890.866140827942</v>
+        <v>2789.739542116045</v>
       </c>
       <c r="P26" t="n">
-        <v>3198.18846571376</v>
+        <v>3198.188465713762</v>
       </c>
       <c r="Q26" t="n">
-        <v>3453.197257937787</v>
+        <v>3453.197257937788</v>
       </c>
       <c r="R26" t="n">
-        <v>3500.070858393413</v>
+        <v>3500.070858393415</v>
       </c>
       <c r="S26" t="n">
-        <v>3428.821443835402</v>
+        <v>3428.821443835403</v>
       </c>
       <c r="T26" t="n">
-        <v>3310.101206804785</v>
+        <v>3310.101206804786</v>
       </c>
       <c r="U26" t="n">
-        <v>3158.440684611246</v>
+        <v>3158.440684611248</v>
       </c>
       <c r="V26" t="n">
-        <v>2924.641288797055</v>
+        <v>2924.641288797057</v>
       </c>
       <c r="W26" t="n">
-        <v>2665.286236944524</v>
+        <v>2665.286236944526</v>
       </c>
       <c r="X26" t="n">
-        <v>2386.435974755885</v>
+        <v>2386.435974755886</v>
       </c>
       <c r="Y26" t="n">
-        <v>2096.07399762159</v>
+        <v>2096.073997621592</v>
       </c>
     </row>
     <row r="27">
@@ -6294,34 +6294,34 @@
         <v>353.4996368396755</v>
       </c>
       <c r="G27" t="n">
-        <v>225.0716715380124</v>
+        <v>225.0716715380125</v>
       </c>
       <c r="H27" t="n">
         <v>128.036346341137</v>
       </c>
       <c r="I27" t="n">
-        <v>70.00141716786825</v>
+        <v>70.0014171678683</v>
       </c>
       <c r="J27" t="n">
-        <v>158.0844604919385</v>
+        <v>158.0844604919386</v>
       </c>
       <c r="K27" t="n">
-        <v>158.0844604919385</v>
+        <v>435.1390301893505</v>
       </c>
       <c r="L27" t="n">
-        <v>587.8619964673408</v>
+        <v>864.9165661647528</v>
       </c>
       <c r="M27" t="n">
-        <v>1147.528624552285</v>
+        <v>1424.583194249697</v>
       </c>
       <c r="N27" t="n">
-        <v>1735.402865949878</v>
+        <v>2012.45743564729</v>
       </c>
       <c r="O27" t="n">
-        <v>2197.684714706241</v>
+        <v>2474.739284403654</v>
       </c>
       <c r="P27" t="n">
-        <v>2549.623705322261</v>
+        <v>2474.739284403654</v>
       </c>
       <c r="Q27" t="n">
         <v>2549.623705322261</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.3460743899501</v>
+        <v>437.3460743899507</v>
       </c>
       <c r="C28" t="n">
-        <v>370.9099831414979</v>
+        <v>370.9099831414986</v>
       </c>
       <c r="D28" t="n">
-        <v>321.0179682591282</v>
+        <v>321.0179682591288</v>
       </c>
       <c r="E28" t="n">
-        <v>272.1888323103146</v>
+        <v>272.1888323103152</v>
       </c>
       <c r="F28" t="n">
-        <v>222.8880556259592</v>
+        <v>222.8880556259599</v>
       </c>
       <c r="G28" t="n">
-        <v>157.4001434596266</v>
+        <v>157.4001434596273</v>
       </c>
       <c r="H28" t="n">
         <v>103.4475137658492</v>
       </c>
       <c r="I28" t="n">
-        <v>70.00141716786825</v>
+        <v>70.0014171678683</v>
       </c>
       <c r="J28" t="n">
-        <v>129.7248718649619</v>
+        <v>129.7248718649621</v>
       </c>
       <c r="K28" t="n">
-        <v>293.1460854252763</v>
+        <v>293.1460854252765</v>
       </c>
       <c r="L28" t="n">
-        <v>531.5936324619329</v>
+        <v>531.5936324619331</v>
       </c>
       <c r="M28" t="n">
-        <v>789.4233644180485</v>
+        <v>789.4233644180488</v>
       </c>
       <c r="N28" t="n">
         <v>1046.761503583601</v>
@@ -6418,16 +6418,16 @@
         <v>1105.181380461518</v>
       </c>
       <c r="V28" t="n">
-        <v>947.6259543098079</v>
+        <v>947.6259543098084</v>
       </c>
       <c r="W28" t="n">
-        <v>764.6494311170745</v>
+        <v>764.6494311170751</v>
       </c>
       <c r="X28" t="n">
-        <v>636.5768453023178</v>
+        <v>636.5768453023184</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.7215647844624</v>
+        <v>517.721564784463</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1805.210336393438</v>
+        <v>1805.21033639344</v>
       </c>
       <c r="C29" t="n">
-        <v>1526.456456016113</v>
+        <v>1526.456456016115</v>
       </c>
       <c r="D29" t="n">
-        <v>1256.812369533204</v>
+        <v>1256.812369533206</v>
       </c>
       <c r="E29" t="n">
-        <v>965.2065279291786</v>
+        <v>965.2065279291805</v>
       </c>
       <c r="F29" t="n">
-        <v>654.2352155292165</v>
+        <v>654.2352155292184</v>
       </c>
       <c r="G29" t="n">
-        <v>341.8728048057687</v>
+        <v>341.8728048057706</v>
       </c>
       <c r="H29" t="n">
         <v>117.9838935476277</v>
       </c>
       <c r="I29" t="n">
-        <v>70.00141716786827</v>
+        <v>70.00141716786831</v>
       </c>
       <c r="J29" t="n">
-        <v>289.8512359199306</v>
+        <v>289.8512359199307</v>
       </c>
       <c r="K29" t="n">
-        <v>701.1463835291966</v>
+        <v>633.1166678170023</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.034501026653</v>
+        <v>1169.004785314459</v>
       </c>
       <c r="M29" t="n">
-        <v>1760.037001612572</v>
+        <v>1760.037001612574</v>
       </c>
       <c r="N29" t="n">
-        <v>2337.725574589548</v>
+        <v>2337.72557458955</v>
       </c>
       <c r="O29" t="n">
-        <v>2836.613142571669</v>
+        <v>2836.613142571671</v>
       </c>
       <c r="P29" t="n">
-        <v>3245.062066169387</v>
+        <v>3245.062066169388</v>
       </c>
       <c r="Q29" t="n">
-        <v>3500.070858393413</v>
+        <v>3500.070858393415</v>
       </c>
       <c r="R29" t="n">
-        <v>3500.070858393413</v>
+        <v>3500.070858393415</v>
       </c>
       <c r="S29" t="n">
-        <v>3428.821443835403</v>
+        <v>3428.821443835404</v>
       </c>
       <c r="T29" t="n">
-        <v>3310.101206804785</v>
+        <v>3310.101206804787</v>
       </c>
       <c r="U29" t="n">
-        <v>3158.440684611246</v>
+        <v>3158.440684611248</v>
       </c>
       <c r="V29" t="n">
-        <v>2924.641288797055</v>
+        <v>2924.641288797056</v>
       </c>
       <c r="W29" t="n">
-        <v>2665.286236944523</v>
+        <v>2665.286236944525</v>
       </c>
       <c r="X29" t="n">
-        <v>2386.435974755885</v>
+        <v>2386.435974755886</v>
       </c>
       <c r="Y29" t="n">
-        <v>2096.07399762159</v>
+        <v>2096.073997621592</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>128.036346341137</v>
       </c>
       <c r="I30" t="n">
-        <v>70.00141716786827</v>
+        <v>70.00141716786831</v>
       </c>
       <c r="J30" t="n">
-        <v>158.0844604919385</v>
+        <v>158.0844604919386</v>
       </c>
       <c r="K30" t="n">
-        <v>435.1390301893504</v>
+        <v>386.0869721806865</v>
       </c>
       <c r="L30" t="n">
-        <v>864.9165661647526</v>
+        <v>386.0869721806865</v>
       </c>
       <c r="M30" t="n">
-        <v>1424.583194249697</v>
+        <v>945.7536002656307</v>
       </c>
       <c r="N30" t="n">
-        <v>2012.45743564729</v>
+        <v>1533.627841663224</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.25251134725</v>
+        <v>1995.909690419587</v>
       </c>
       <c r="P30" t="n">
         <v>2354.25251134725</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.3460743899506</v>
+        <v>437.3460743899501</v>
       </c>
       <c r="C31" t="n">
-        <v>370.9099831414984</v>
+        <v>370.9099831414979</v>
       </c>
       <c r="D31" t="n">
-        <v>321.0179682591287</v>
+        <v>321.0179682591282</v>
       </c>
       <c r="E31" t="n">
-        <v>272.188832310315</v>
+        <v>272.1888323103146</v>
       </c>
       <c r="F31" t="n">
-        <v>222.8880556259597</v>
+        <v>222.8880556259593</v>
       </c>
       <c r="G31" t="n">
-        <v>157.4001434596271</v>
+        <v>157.4001434596266</v>
       </c>
       <c r="H31" t="n">
         <v>103.4475137658492</v>
       </c>
       <c r="I31" t="n">
-        <v>70.00141716786827</v>
+        <v>70.00141716786831</v>
       </c>
       <c r="J31" t="n">
         <v>129.7248718649619</v>
       </c>
       <c r="K31" t="n">
-        <v>293.1460854252763</v>
+        <v>293.1460854252762</v>
       </c>
       <c r="L31" t="n">
         <v>531.5936324619328</v>
       </c>
       <c r="M31" t="n">
-        <v>789.4233644180483</v>
+        <v>789.4233644180485</v>
       </c>
       <c r="N31" t="n">
         <v>1046.7615035836</v>
       </c>
       <c r="O31" t="n">
-        <v>1281.25619015343</v>
+        <v>1281.256190153431</v>
       </c>
       <c r="P31" t="n">
         <v>1475.218052107441</v>
@@ -6646,7 +6646,7 @@
         <v>1524.239465292104</v>
       </c>
       <c r="S31" t="n">
-        <v>1418.100524833803</v>
+        <v>1418.100524833804</v>
       </c>
       <c r="T31" t="n">
         <v>1289.177998509317</v>
@@ -6655,16 +6655,16 @@
         <v>1105.181380461518</v>
       </c>
       <c r="V31" t="n">
-        <v>947.6259543098078</v>
+        <v>947.625954309808</v>
       </c>
       <c r="W31" t="n">
-        <v>764.6494311170744</v>
+        <v>764.6494311170746</v>
       </c>
       <c r="X31" t="n">
-        <v>636.5768453023177</v>
+        <v>636.5768453023179</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.7215647844629</v>
+        <v>517.7215647844624</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1805.210336393438</v>
+        <v>1805.21033639344</v>
       </c>
       <c r="C32" t="n">
-        <v>1526.456456016113</v>
+        <v>1526.456456016115</v>
       </c>
       <c r="D32" t="n">
-        <v>1256.812369533204</v>
+        <v>1256.812369533206</v>
       </c>
       <c r="E32" t="n">
-        <v>965.2065279291787</v>
+        <v>965.2065279291803</v>
       </c>
       <c r="F32" t="n">
-        <v>654.2352155292169</v>
+        <v>654.2352155292181</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8728048057691</v>
+        <v>341.8728048057702</v>
       </c>
       <c r="H32" t="n">
-        <v>117.9838935476276</v>
+        <v>117.9838935476278</v>
       </c>
       <c r="I32" t="n">
-        <v>70.00141716786827</v>
+        <v>70.00141716786831</v>
       </c>
       <c r="J32" t="n">
-        <v>289.8512359199307</v>
+        <v>188.7246372080315</v>
       </c>
       <c r="K32" t="n">
-        <v>701.1463835291966</v>
+        <v>600.0197848172975</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.034501026654</v>
+        <v>1135.907902314754</v>
       </c>
       <c r="M32" t="n">
-        <v>1828.066717324768</v>
+        <v>1726.940118612869</v>
       </c>
       <c r="N32" t="n">
-        <v>2405.755290301744</v>
+        <v>2290.851974133923</v>
       </c>
       <c r="O32" t="n">
-        <v>2904.642858283865</v>
+        <v>2789.739542116045</v>
       </c>
       <c r="P32" t="n">
-        <v>3313.091781881582</v>
+        <v>3198.188465713762</v>
       </c>
       <c r="Q32" t="n">
-        <v>3500.070858393413</v>
+        <v>3453.197257937789</v>
       </c>
       <c r="R32" t="n">
-        <v>3500.070858393413</v>
+        <v>3500.070858393415</v>
       </c>
       <c r="S32" t="n">
-        <v>3428.821443835402</v>
+        <v>3428.821443835404</v>
       </c>
       <c r="T32" t="n">
-        <v>3310.101206804785</v>
+        <v>3310.101206804787</v>
       </c>
       <c r="U32" t="n">
-        <v>3158.440684611246</v>
+        <v>3158.440684611248</v>
       </c>
       <c r="V32" t="n">
-        <v>2924.641288797055</v>
+        <v>2924.641288797056</v>
       </c>
       <c r="W32" t="n">
-        <v>2665.286236944524</v>
+        <v>2665.286236944525</v>
       </c>
       <c r="X32" t="n">
-        <v>2386.435974755885</v>
+        <v>2386.435974755886</v>
       </c>
       <c r="Y32" t="n">
-        <v>2096.07399762159</v>
+        <v>2096.073997621591</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>128.036346341137</v>
       </c>
       <c r="I33" t="n">
-        <v>70.00141716786827</v>
+        <v>70.00141716786831</v>
       </c>
       <c r="J33" t="n">
-        <v>70.00141716786827</v>
+        <v>158.0844604919386</v>
       </c>
       <c r="K33" t="n">
-        <v>347.0559868652801</v>
+        <v>435.1390301893505</v>
       </c>
       <c r="L33" t="n">
-        <v>776.8335228406823</v>
+        <v>864.9165661647528</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.500150925626</v>
+        <v>1424.583194249697</v>
       </c>
       <c r="N33" t="n">
-        <v>1924.37439232322</v>
+        <v>1533.627841663224</v>
       </c>
       <c r="O33" t="n">
-        <v>2386.656241079583</v>
+        <v>1995.909690419587</v>
       </c>
       <c r="P33" t="n">
-        <v>2386.656241079583</v>
+        <v>2354.25251134725</v>
       </c>
       <c r="Q33" t="n">
         <v>2549.623705322261</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.3460743899499</v>
+        <v>437.3460743899504</v>
       </c>
       <c r="C34" t="n">
-        <v>370.9099831414978</v>
+        <v>370.9099831414982</v>
       </c>
       <c r="D34" t="n">
-        <v>321.0179682591281</v>
+        <v>321.0179682591285</v>
       </c>
       <c r="E34" t="n">
-        <v>272.1888323103145</v>
+        <v>272.1888323103148</v>
       </c>
       <c r="F34" t="n">
-        <v>222.8880556259592</v>
+        <v>222.8880556259594</v>
       </c>
       <c r="G34" t="n">
-        <v>157.4001434596266</v>
+        <v>157.4001434596267</v>
       </c>
       <c r="H34" t="n">
-        <v>103.4475137658492</v>
+        <v>103.4475137658493</v>
       </c>
       <c r="I34" t="n">
-        <v>70.00141716786827</v>
+        <v>70.00141716786831</v>
       </c>
       <c r="J34" t="n">
         <v>129.7248718649619</v>
@@ -6862,46 +6862,46 @@
         <v>293.1460854252763</v>
       </c>
       <c r="L34" t="n">
-        <v>531.593632461932</v>
+        <v>531.5936324619329</v>
       </c>
       <c r="M34" t="n">
-        <v>789.4233644180476</v>
+        <v>789.4233644180485</v>
       </c>
       <c r="N34" t="n">
-        <v>1046.7615035836</v>
+        <v>1046.761503583601</v>
       </c>
       <c r="O34" t="n">
-        <v>1281.25619015343</v>
+        <v>1281.256190153431</v>
       </c>
       <c r="P34" t="n">
-        <v>1475.21805210744</v>
+        <v>1475.218052107442</v>
       </c>
       <c r="Q34" t="n">
-        <v>1559.252412585604</v>
+        <v>1559.252412585606</v>
       </c>
       <c r="R34" t="n">
-        <v>1524.239465292103</v>
+        <v>1524.239465292105</v>
       </c>
       <c r="S34" t="n">
-        <v>1418.100524833802</v>
+        <v>1418.100524833804</v>
       </c>
       <c r="T34" t="n">
-        <v>1289.177998509316</v>
+        <v>1289.177998509317</v>
       </c>
       <c r="U34" t="n">
-        <v>1105.181380461517</v>
+        <v>1105.181380461518</v>
       </c>
       <c r="V34" t="n">
-        <v>947.6259543098076</v>
+        <v>947.6259543098083</v>
       </c>
       <c r="W34" t="n">
-        <v>764.6494311170743</v>
+        <v>764.6494311170749</v>
       </c>
       <c r="X34" t="n">
-        <v>636.5768453023176</v>
+        <v>636.5768453023181</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.7215647844622</v>
+        <v>517.7215647844628</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>1445.105500347333</v>
       </c>
       <c r="C35" t="n">
-        <v>1215.851662655954</v>
+        <v>1215.851662655953</v>
       </c>
       <c r="D35" t="n">
-        <v>995.7076188589904</v>
+        <v>995.7076188589897</v>
       </c>
       <c r="E35" t="n">
-        <v>753.6018199409103</v>
+        <v>753.6018199409096</v>
       </c>
       <c r="F35" t="n">
-        <v>492.1305502268938</v>
+        <v>492.1305502268931</v>
       </c>
       <c r="G35" t="n">
         <v>229.2681821893912</v>
       </c>
       <c r="H35" t="n">
-        <v>54.87931361719487</v>
+        <v>54.87931361719485</v>
       </c>
       <c r="I35" t="n">
-        <v>54.87931361719487</v>
+        <v>54.87931361719485</v>
       </c>
       <c r="J35" t="n">
-        <v>173.602533657359</v>
+        <v>173.602533657358</v>
       </c>
       <c r="K35" t="n">
-        <v>483.7710825547258</v>
+        <v>483.7710825547247</v>
       </c>
       <c r="L35" t="n">
-        <v>918.5326013402837</v>
+        <v>918.5326013402826</v>
       </c>
       <c r="M35" t="n">
-        <v>1408.438218926499</v>
+        <v>1408.438218926498</v>
       </c>
       <c r="N35" t="n">
-        <v>1885.000193191576</v>
+        <v>1885.000193191574</v>
       </c>
       <c r="O35" t="n">
-        <v>2282.761162461798</v>
+        <v>2282.761162461797</v>
       </c>
       <c r="P35" t="n">
-        <v>2590.083487347616</v>
+        <v>2590.083487347615</v>
       </c>
       <c r="Q35" t="n">
-        <v>2743.965680859743</v>
+        <v>2743.965680859742</v>
       </c>
       <c r="R35" t="n">
-        <v>2743.965680859743</v>
+        <v>2743.965680859742</v>
       </c>
       <c r="S35" t="n">
-        <v>2722.216308987678</v>
+        <v>2722.216308987677</v>
       </c>
       <c r="T35" t="n">
-        <v>2652.996114643006</v>
+        <v>2652.996114643005</v>
       </c>
       <c r="U35" t="n">
-        <v>2550.835635135413</v>
+        <v>2550.835635135412</v>
       </c>
       <c r="V35" t="n">
         <v>2366.536282007167</v>
       </c>
       <c r="W35" t="n">
-        <v>2156.681272840582</v>
+        <v>2156.681272840581</v>
       </c>
       <c r="X35" t="n">
-        <v>1927.331053337888</v>
+        <v>1927.331053337887</v>
       </c>
       <c r="Y35" t="n">
         <v>1686.469118889539</v>
@@ -7011,28 +7011,28 @@
         <v>112.9142427904636</v>
       </c>
       <c r="I36" t="n">
-        <v>54.87931361719487</v>
+        <v>54.87931361719485</v>
       </c>
       <c r="J36" t="n">
-        <v>54.87931361719487</v>
+        <v>54.87931361719485</v>
       </c>
       <c r="K36" t="n">
         <v>331.9338833146068</v>
       </c>
       <c r="L36" t="n">
-        <v>566.3360626050234</v>
+        <v>761.711419290009</v>
       </c>
       <c r="M36" t="n">
-        <v>1126.002690689967</v>
+        <v>930.6314967149569</v>
       </c>
       <c r="N36" t="n">
-        <v>1713.876932087561</v>
+        <v>1518.50573811255</v>
       </c>
       <c r="O36" t="n">
-        <v>2176.158780843924</v>
+        <v>1980.787586868913</v>
       </c>
       <c r="P36" t="n">
-        <v>2534.501601771587</v>
+        <v>2339.130407796576</v>
       </c>
       <c r="Q36" t="n">
         <v>2534.501601771587</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.64779086434444</v>
+        <v>92.64779086434442</v>
       </c>
       <c r="C37" t="n">
-        <v>75.71174230183787</v>
+        <v>75.71174230183784</v>
       </c>
       <c r="D37" t="n">
-        <v>75.31977010541374</v>
+        <v>75.31977010541371</v>
       </c>
       <c r="E37" t="n">
-        <v>75.31977010541374</v>
+        <v>75.31977010541371</v>
       </c>
       <c r="F37" t="n">
-        <v>75.31977010541374</v>
+        <v>75.31977010541371</v>
       </c>
       <c r="G37" t="n">
-        <v>59.33190062502671</v>
+        <v>59.33190062502668</v>
       </c>
       <c r="H37" t="n">
-        <v>54.87931361719487</v>
+        <v>54.87931361719485</v>
       </c>
       <c r="I37" t="n">
-        <v>54.87931361719487</v>
+        <v>54.87931361719485</v>
       </c>
       <c r="J37" t="n">
-        <v>54.87931361719487</v>
+        <v>54.87931361719485</v>
       </c>
       <c r="K37" t="n">
         <v>117.1739284656101</v>
@@ -7102,22 +7102,22 @@
         <v>254.4948767903675</v>
       </c>
       <c r="M37" t="n">
-        <v>411.198010034584</v>
+        <v>411.1980100345841</v>
       </c>
       <c r="N37" t="n">
-        <v>567.4095504882368</v>
+        <v>567.409550488237</v>
       </c>
       <c r="O37" t="n">
-        <v>700.7776383461678</v>
+        <v>700.777638346168</v>
       </c>
       <c r="P37" t="n">
-        <v>793.612901588279</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="Q37" t="n">
-        <v>793.612901588279</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="R37" t="n">
-        <v>793.612901588279</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="S37" t="n">
         <v>726.9019425065781</v>
@@ -7154,49 +7154,49 @@
         <v>1215.851662655954</v>
       </c>
       <c r="D38" t="n">
-        <v>995.7076188589903</v>
+        <v>995.7076188589906</v>
       </c>
       <c r="E38" t="n">
-        <v>753.6018199409102</v>
+        <v>753.6018199409104</v>
       </c>
       <c r="F38" t="n">
-        <v>492.1305502268937</v>
+        <v>492.1305502268938</v>
       </c>
       <c r="G38" t="n">
-        <v>229.2681821893912</v>
+        <v>229.2681821893913</v>
       </c>
       <c r="H38" t="n">
-        <v>54.87931361719489</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="I38" t="n">
-        <v>54.87931361719489</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="J38" t="n">
         <v>173.6025336573581</v>
       </c>
       <c r="K38" t="n">
-        <v>483.7710825547267</v>
+        <v>483.771082554725</v>
       </c>
       <c r="L38" t="n">
-        <v>918.5326013402844</v>
+        <v>918.532601340283</v>
       </c>
       <c r="M38" t="n">
-        <v>1408.4382189265</v>
+        <v>1408.438218926498</v>
       </c>
       <c r="N38" t="n">
-        <v>1885.000193191576</v>
+        <v>1885.000193191575</v>
       </c>
       <c r="O38" t="n">
-        <v>2282.761162461799</v>
+        <v>2282.761162461798</v>
       </c>
       <c r="P38" t="n">
-        <v>2590.083487347616</v>
+        <v>2590.083487347615</v>
       </c>
       <c r="Q38" t="n">
-        <v>2743.965680859744</v>
+        <v>2743.965680859743</v>
       </c>
       <c r="R38" t="n">
-        <v>2743.965680859744</v>
+        <v>2743.965680859743</v>
       </c>
       <c r="S38" t="n">
         <v>2722.216308987679</v>
@@ -7205,16 +7205,16 @@
         <v>2652.996114643007</v>
       </c>
       <c r="U38" t="n">
-        <v>2550.835635135413</v>
+        <v>2550.835635135414</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.536282007167</v>
+        <v>2366.536282007168</v>
       </c>
       <c r="W38" t="n">
         <v>2156.681272840582</v>
       </c>
       <c r="X38" t="n">
-        <v>1927.331053337888</v>
+        <v>1927.331053337889</v>
       </c>
       <c r="Y38" t="n">
         <v>1686.469118889539</v>
@@ -7242,16 +7242,16 @@
         <v>338.3775332890021</v>
       </c>
       <c r="G39" t="n">
-        <v>209.9495679873391</v>
+        <v>209.949567987339</v>
       </c>
       <c r="H39" t="n">
         <v>112.9142427904636</v>
       </c>
       <c r="I39" t="n">
-        <v>54.87931361719489</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="J39" t="n">
-        <v>54.87931361719489</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="K39" t="n">
         <v>331.9338833146068</v>
@@ -7266,10 +7266,10 @@
         <v>1909.252288772546</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.534137528909</v>
+        <v>1980.787586868913</v>
       </c>
       <c r="P39" t="n">
-        <v>2534.501601771587</v>
+        <v>2339.130407796576</v>
       </c>
       <c r="Q39" t="n">
         <v>2534.501601771587</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.71985217369</v>
+        <v>92.6477908643449</v>
       </c>
       <c r="C40" t="n">
-        <v>85.78380361118344</v>
+        <v>75.71174230183821</v>
       </c>
       <c r="D40" t="n">
-        <v>75.31977010541377</v>
+        <v>75.31977010541397</v>
       </c>
       <c r="E40" t="n">
-        <v>75.31977010541377</v>
+        <v>75.31977010541397</v>
       </c>
       <c r="F40" t="n">
-        <v>75.31977010541377</v>
+        <v>75.31977010541397</v>
       </c>
       <c r="G40" t="n">
-        <v>59.33190062502673</v>
+        <v>59.33190062502681</v>
       </c>
       <c r="H40" t="n">
-        <v>54.87931361719489</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="I40" t="n">
-        <v>54.87931361719489</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="J40" t="n">
-        <v>54.87931361719489</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="K40" t="n">
         <v>117.1739284656101</v>
       </c>
       <c r="L40" t="n">
-        <v>254.4948767903675</v>
+        <v>254.4948767903676</v>
       </c>
       <c r="M40" t="n">
         <v>411.1980100345841</v>
@@ -7345,37 +7345,37 @@
         <v>567.409550488237</v>
       </c>
       <c r="O40" t="n">
-        <v>700.7776383461679</v>
+        <v>700.777638346168</v>
       </c>
       <c r="P40" t="n">
-        <v>793.6129015882791</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="Q40" t="n">
-        <v>793.6129015882791</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="R40" t="n">
-        <v>793.6129015882791</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="S40" t="n">
         <v>736.9740038159237</v>
       </c>
       <c r="T40" t="n">
-        <v>657.5515201773831</v>
+        <v>657.5515201773829</v>
       </c>
       <c r="U40" t="n">
-        <v>523.0549448155297</v>
+        <v>523.0549448155294</v>
       </c>
       <c r="V40" t="n">
-        <v>414.9995613497654</v>
+        <v>404.9275000404207</v>
       </c>
       <c r="W40" t="n">
-        <v>281.5230808429776</v>
+        <v>271.4510195336328</v>
       </c>
       <c r="X40" t="n">
-        <v>202.9505377141665</v>
+        <v>192.8784764048216</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.5952998822567</v>
+        <v>123.5232385729117</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1445.105500347332</v>
+        <v>1445.105500347334</v>
       </c>
       <c r="C41" t="n">
-        <v>1215.851662655953</v>
+        <v>1215.851662655954</v>
       </c>
       <c r="D41" t="n">
-        <v>995.7076188589897</v>
+        <v>995.7076188589909</v>
       </c>
       <c r="E41" t="n">
-        <v>753.6018199409098</v>
+        <v>753.601819940911</v>
       </c>
       <c r="F41" t="n">
-        <v>492.1305502268934</v>
+        <v>492.1305502268946</v>
       </c>
       <c r="G41" t="n">
-        <v>229.268182189391</v>
+        <v>229.2681821893911</v>
       </c>
       <c r="H41" t="n">
         <v>54.87931361719486</v>
@@ -7412,19 +7412,19 @@
         <v>173.6025336573581</v>
       </c>
       <c r="K41" t="n">
-        <v>483.7710825547249</v>
+        <v>483.7710825547252</v>
       </c>
       <c r="L41" t="n">
-        <v>918.5326013402826</v>
+        <v>918.532601340283</v>
       </c>
       <c r="M41" t="n">
         <v>1408.438218926498</v>
       </c>
       <c r="N41" t="n">
-        <v>1885.000193191574</v>
+        <v>1885.000193191575</v>
       </c>
       <c r="O41" t="n">
-        <v>2282.761162461797</v>
+        <v>2282.761162461798</v>
       </c>
       <c r="P41" t="n">
         <v>2590.083487347615</v>
@@ -7442,19 +7442,19 @@
         <v>2652.996114643006</v>
       </c>
       <c r="U41" t="n">
-        <v>2550.835635135411</v>
+        <v>2550.835635135413</v>
       </c>
       <c r="V41" t="n">
-        <v>2366.536282007166</v>
+        <v>2366.536282007168</v>
       </c>
       <c r="W41" t="n">
-        <v>2156.68127284058</v>
+        <v>2156.681272840582</v>
       </c>
       <c r="X41" t="n">
-        <v>1927.331053337887</v>
+        <v>1927.331053337889</v>
       </c>
       <c r="Y41" t="n">
-        <v>1686.469118889538</v>
+        <v>1686.46911888954</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>142.9623569412651</v>
       </c>
       <c r="K42" t="n">
-        <v>142.9623569412651</v>
+        <v>403.4691814109739</v>
       </c>
       <c r="L42" t="n">
-        <v>572.7398929166673</v>
+        <v>833.2467173863762</v>
       </c>
       <c r="M42" t="n">
-        <v>1132.406521001612</v>
+        <v>1392.91334547132</v>
       </c>
       <c r="N42" t="n">
-        <v>1720.280762399205</v>
+        <v>1980.787586868913</v>
       </c>
       <c r="O42" t="n">
-        <v>2182.562611155568</v>
+        <v>1980.787586868913</v>
       </c>
       <c r="P42" t="n">
         <v>2339.130407796576</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>92.64779086434386</v>
+        <v>92.6477908643442</v>
       </c>
       <c r="C43" t="n">
-        <v>75.71174230183743</v>
+        <v>75.71174230183769</v>
       </c>
       <c r="D43" t="n">
-        <v>75.31977010541344</v>
+        <v>75.31977010541361</v>
       </c>
       <c r="E43" t="n">
-        <v>75.31977010541344</v>
+        <v>75.31977010541361</v>
       </c>
       <c r="F43" t="n">
-        <v>75.31977010541344</v>
+        <v>75.31977010541361</v>
       </c>
       <c r="G43" t="n">
-        <v>59.33190062502656</v>
+        <v>59.33190062502664</v>
       </c>
       <c r="H43" t="n">
         <v>54.87931361719486</v>
@@ -7573,46 +7573,46 @@
         <v>117.1739284656101</v>
       </c>
       <c r="L43" t="n">
-        <v>254.4948767903675</v>
+        <v>254.4948767903676</v>
       </c>
       <c r="M43" t="n">
-        <v>411.198010034584</v>
+        <v>411.1980100345841</v>
       </c>
       <c r="N43" t="n">
-        <v>567.4095504882368</v>
+        <v>567.409550488237</v>
       </c>
       <c r="O43" t="n">
-        <v>700.7776383461678</v>
+        <v>700.777638346168</v>
       </c>
       <c r="P43" t="n">
-        <v>793.612901588279</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="Q43" t="n">
-        <v>793.612901588279</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="R43" t="n">
-        <v>793.612901588279</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="S43" t="n">
-        <v>736.9740038159237</v>
+        <v>736.9740038159238</v>
       </c>
       <c r="T43" t="n">
-        <v>657.5515201773832</v>
+        <v>657.5515201773833</v>
       </c>
       <c r="U43" t="n">
         <v>523.05494481553</v>
       </c>
       <c r="V43" t="n">
-        <v>414.9995613497659</v>
+        <v>414.9995613497658</v>
       </c>
       <c r="W43" t="n">
-        <v>281.5230808429783</v>
+        <v>281.5230808429781</v>
       </c>
       <c r="X43" t="n">
-        <v>192.87847640482</v>
+        <v>202.9505377141671</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.5232385729104</v>
+        <v>123.5232385729108</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1445.105500347334</v>
+        <v>1445.105500347333</v>
       </c>
       <c r="C44" t="n">
-        <v>1215.851662655955</v>
+        <v>1215.851662655954</v>
       </c>
       <c r="D44" t="n">
-        <v>995.7076188589913</v>
+        <v>995.7076188589908</v>
       </c>
       <c r="E44" t="n">
-        <v>753.6018199409114</v>
+        <v>753.6018199409107</v>
       </c>
       <c r="F44" t="n">
-        <v>492.1305502268949</v>
+        <v>492.1305502268942</v>
       </c>
       <c r="G44" t="n">
-        <v>229.268182189391</v>
+        <v>229.2681821893911</v>
       </c>
       <c r="H44" t="n">
-        <v>54.87931361719485</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="I44" t="n">
-        <v>54.87931361719485</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="J44" t="n">
-        <v>173.602533657358</v>
+        <v>173.6025336573582</v>
       </c>
       <c r="K44" t="n">
-        <v>483.7710825547248</v>
+        <v>483.771082554725</v>
       </c>
       <c r="L44" t="n">
-        <v>918.5326013402826</v>
+        <v>918.5326013402828</v>
       </c>
       <c r="M44" t="n">
         <v>1408.438218926498</v>
       </c>
       <c r="N44" t="n">
-        <v>1885.000193191574</v>
+        <v>1885.000193191575</v>
       </c>
       <c r="O44" t="n">
-        <v>2282.761162461797</v>
+        <v>2282.761162461798</v>
       </c>
       <c r="P44" t="n">
         <v>2590.083487347615</v>
       </c>
       <c r="Q44" t="n">
-        <v>2743.965680859742</v>
+        <v>2743.965680859743</v>
       </c>
       <c r="R44" t="n">
-        <v>2743.965680859742</v>
+        <v>2743.965680859743</v>
       </c>
       <c r="S44" t="n">
         <v>2722.216308987677</v>
@@ -7688,10 +7688,10 @@
         <v>2156.681272840582</v>
       </c>
       <c r="X44" t="n">
-        <v>1927.331053337889</v>
+        <v>1927.331053337888</v>
       </c>
       <c r="Y44" t="n">
-        <v>1686.46911888954</v>
+        <v>1686.469118889539</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>112.9142427904636</v>
       </c>
       <c r="I45" t="n">
-        <v>54.87931361719485</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="J45" t="n">
         <v>142.9623569412651</v>
       </c>
       <c r="K45" t="n">
-        <v>142.9623569412651</v>
+        <v>420.016926638677</v>
       </c>
       <c r="L45" t="n">
-        <v>370.9648686300128</v>
+        <v>849.7944626140793</v>
       </c>
       <c r="M45" t="n">
-        <v>930.6314967149569</v>
+        <v>1409.461090699023</v>
       </c>
       <c r="N45" t="n">
         <v>1518.50573811255</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.7198521736911</v>
+        <v>92.6477908643442</v>
       </c>
       <c r="C46" t="n">
-        <v>85.78380361118469</v>
+        <v>75.71174230183769</v>
       </c>
       <c r="D46" t="n">
-        <v>85.3918314147607</v>
+        <v>75.31977010541361</v>
       </c>
       <c r="E46" t="n">
-        <v>85.3918314147607</v>
+        <v>75.31977010541361</v>
       </c>
       <c r="F46" t="n">
-        <v>85.3918314147607</v>
+        <v>75.31977010541361</v>
       </c>
       <c r="G46" t="n">
-        <v>59.33190062502654</v>
+        <v>59.33190062502664</v>
       </c>
       <c r="H46" t="n">
-        <v>54.87931361719485</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="I46" t="n">
-        <v>54.87931361719485</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="J46" t="n">
-        <v>54.87931361719485</v>
+        <v>54.87931361719486</v>
       </c>
       <c r="K46" t="n">
-        <v>117.17392846561</v>
+        <v>117.1739284656101</v>
       </c>
       <c r="L46" t="n">
-        <v>254.4948767903675</v>
+        <v>254.4948767903676</v>
       </c>
       <c r="M46" t="n">
-        <v>411.1980100345839</v>
+        <v>411.1980100345841</v>
       </c>
       <c r="N46" t="n">
-        <v>567.4095504882368</v>
+        <v>567.409550488237</v>
       </c>
       <c r="O46" t="n">
-        <v>700.7776383461678</v>
+        <v>700.777638346168</v>
       </c>
       <c r="P46" t="n">
-        <v>793.612901588279</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="Q46" t="n">
-        <v>793.612901588279</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="R46" t="n">
-        <v>793.612901588279</v>
+        <v>793.6129015882792</v>
       </c>
       <c r="S46" t="n">
-        <v>736.9740038159237</v>
+        <v>726.9019425065773</v>
       </c>
       <c r="T46" t="n">
-        <v>657.5515201773832</v>
+        <v>647.4794588680368</v>
       </c>
       <c r="U46" t="n">
-        <v>523.05494481553</v>
+        <v>512.9828835061835</v>
       </c>
       <c r="V46" t="n">
-        <v>414.9995613497659</v>
+        <v>404.9275000404193</v>
       </c>
       <c r="W46" t="n">
-        <v>281.5230808429783</v>
+        <v>271.4510195336316</v>
       </c>
       <c r="X46" t="n">
-        <v>202.9505377141673</v>
+        <v>192.8784764048206</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.5952998822577</v>
+        <v>123.5232385729108</v>
       </c>
     </row>
   </sheetData>
@@ -8696,16 +8696,16 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>485.0065125148114</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>93.26147880296023</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>410.3294056419106</v>
+        <v>107.9117298291721</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>63.95170741189576</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8778,16 +8778,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>611.8318471447494</v>
+        <v>138.6156765230535</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>220.6385293146801</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.7558336778052</v>
+        <v>75.75583367780519</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>123.3394924468643</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>108.0874717997193</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8936,7 +8936,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>158.763329915953</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -9009,22 +9009,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>278.483000274168</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>611.8318471447493</v>
+        <v>29.33272159854563</v>
       </c>
       <c r="O15" t="n">
-        <v>45.06965267958323</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>185.0387886023129</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,13 +9164,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>108.0874717997194</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>487.8814862638515</v>
+        <v>174.5799217210561</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9246,16 +9246,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>394.0307634402065</v>
       </c>
       <c r="M18" t="n">
-        <v>401.8071342546712</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>611.8318471447494</v>
+        <v>29.33272159854563</v>
       </c>
       <c r="O18" t="n">
-        <v>45.06965267958334</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>99.90315523868254</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9410,16 +9410,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355793</v>
+        <v>278.6857744009665</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>163.9872079064615</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.5729287547167</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9489,16 +9489,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>138.6156765230543</v>
+        <v>408.22239852442</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>45.0696526795833</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.7558336778052</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9650,10 +9650,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
-        <v>495.0402356415689</v>
+        <v>187.4733606830657</v>
       </c>
       <c r="P23" t="n">
-        <v>110.7714456644248</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>74.94557490811709</v>
+        <v>74.94557490811708</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,16 +9723,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>114.7361002681728</v>
       </c>
       <c r="N24" t="n">
-        <v>494.4270494212705</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>52.03915385044051</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9954,7 +9954,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>63.95170741189576</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9969,10 +9969,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>407.5330837656118</v>
+        <v>52.03915385044048</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.7558336778052</v>
+        <v>151.3966628885196</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10191,10 +10191,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>294.2572747742674</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>47.97372568701991</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10203,10 +10203,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>390.3172038916647</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>52.03915385044051</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>74.94557490811709</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>139.4788300970575</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>52.03915385044051</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>240.3694339229345</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,16 +10662,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>74.94557490811709</v>
+        <v>74.94557490811708</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>284.7436037581479</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>210.7230973598522</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.7558336778052</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,10 +10823,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425159</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155858</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>74.94557490811709</v>
+        <v>74.94557490811708</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10914,13 +10914,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>117.3275295446008</v>
       </c>
       <c r="P39" t="n">
-        <v>216.6527540955694</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.7558336778052</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425144</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11075,7 +11075,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229277</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>63.95170741189576</v>
+        <v>327.0899139469551</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,10 +11151,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>45.0696526795833</v>
       </c>
       <c r="P42" t="n">
-        <v>210.1884433868128</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11376,16 +11376,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>63.95170741189576</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>278.2792930493914</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>139.4788300970575</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.9550246158701</v>
+        <v>224.2044606955945</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>266.9476456180798</v>
       </c>
       <c r="E11" t="n">
         <v>288.6897831879854</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>307.8615992759625</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.50265161596182</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>117.5330346603111</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>150.1439169716033</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.426023594861919</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.4583573629515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.902744876744691e-13</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.9476456180798</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>220.7775606651715</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>309.2387866162134</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.50265161596185</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.1439169716033</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>231.4614018560492</v>
+        <v>224.0586991803767</v>
       </c>
       <c r="W14" t="n">
-        <v>256.7615013340061</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>276.0617595667528</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>287.4583573629515</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>100.1866030035882</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>100.1866030035888</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23972,13 +23972,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>100.1866030035886</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>100.1866030035882</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958048.0566982009</v>
+        <v>958048.0566982008</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440379.0631167</v>
+        <v>440379.0631167002</v>
       </c>
       <c r="C2" t="n">
-        <v>440379.0631167</v>
+        <v>440379.0631167002</v>
       </c>
       <c r="D2" t="n">
-        <v>440379.0631167</v>
+        <v>440379.0631167002</v>
       </c>
       <c r="E2" t="n">
         <v>389425.4497383391</v>
       </c>
       <c r="F2" t="n">
-        <v>389425.4497383393</v>
+        <v>389425.4497383391</v>
       </c>
       <c r="G2" t="n">
-        <v>436798.2939646802</v>
+        <v>436798.2939646803</v>
       </c>
       <c r="H2" t="n">
-        <v>436798.2939646802</v>
+        <v>436798.2939646801</v>
       </c>
       <c r="I2" t="n">
-        <v>441383.834784155</v>
+        <v>441383.8347841551</v>
       </c>
       <c r="J2" t="n">
-        <v>441383.8347841534</v>
+        <v>441383.8347841536</v>
       </c>
       <c r="K2" t="n">
-        <v>441383.8347841534</v>
+        <v>441383.8347841536</v>
       </c>
       <c r="L2" t="n">
-        <v>441383.8347841539</v>
+        <v>441383.8347841536</v>
       </c>
       <c r="M2" t="n">
         <v>441383.8347841548</v>
       </c>
       <c r="N2" t="n">
+        <v>441383.834784154</v>
+      </c>
+      <c r="O2" t="n">
+        <v>441383.8347841549</v>
+      </c>
+      <c r="P2" t="n">
         <v>441383.834784155</v>
-      </c>
-      <c r="O2" t="n">
-        <v>441383.8347841548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>441383.8347841547</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>56429.53632994482</v>
+        <v>56429.53632994484</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6865.007642062631</v>
+        <v>6865.007642062661</v>
       </c>
       <c r="J3" t="n">
-        <v>95070.06823648061</v>
+        <v>95070.06823648071</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56429.53632994484</v>
+        <v>56429.53632994481</v>
       </c>
       <c r="M3" t="n">
-        <v>137259.0372243599</v>
+        <v>137259.0372243597</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25288.92727563037</v>
+        <v>25288.92727563038</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>406144.6554248994</v>
       </c>
       <c r="E4" t="n">
-        <v>273128.7941516375</v>
+        <v>273128.7941516374</v>
       </c>
       <c r="F4" t="n">
         <v>273128.7941516374</v>
       </c>
       <c r="G4" t="n">
-        <v>319918.9501660715</v>
+        <v>319918.9501660714</v>
       </c>
       <c r="H4" t="n">
-        <v>319918.9501660715</v>
+        <v>319918.9501660714</v>
       </c>
       <c r="I4" t="n">
         <v>322501.4631678432</v>
@@ -26442,22 +26442,22 @@
         <v>318992.8416964558</v>
       </c>
       <c r="K4" t="n">
+        <v>318992.8416964559</v>
+      </c>
+      <c r="L4" t="n">
         <v>318992.8416964558</v>
-      </c>
-      <c r="L4" t="n">
-        <v>318992.8416964559</v>
       </c>
       <c r="M4" t="n">
         <v>317992.8236546817</v>
       </c>
       <c r="N4" t="n">
-        <v>317992.8236546818</v>
+        <v>317992.8236546817</v>
       </c>
       <c r="O4" t="n">
         <v>317992.8236546818</v>
       </c>
       <c r="P4" t="n">
-        <v>317992.8236546818</v>
+        <v>317992.8236546817</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>47018.91957068328</v>
       </c>
       <c r="F5" t="n">
-        <v>47018.91957068329</v>
+        <v>47018.91957068328</v>
       </c>
       <c r="G5" t="n">
         <v>52948.88793283595</v>
@@ -26491,22 +26491,22 @@
         <v>54518.49869933205</v>
       </c>
       <c r="J5" t="n">
-        <v>64804.04978505398</v>
+        <v>64804.04978505401</v>
       </c>
       <c r="K5" t="n">
-        <v>64804.04978505398</v>
+        <v>64804.04978505401</v>
       </c>
       <c r="L5" t="n">
-        <v>64804.04978505398</v>
+        <v>64804.04978505401</v>
       </c>
       <c r="M5" t="n">
+        <v>57431.0559842213</v>
+      </c>
+      <c r="N5" t="n">
+        <v>57431.0559842213</v>
+      </c>
+      <c r="O5" t="n">
         <v>57431.05598422131</v>
-      </c>
-      <c r="N5" t="n">
-        <v>57431.05598422133</v>
-      </c>
-      <c r="O5" t="n">
-        <v>57431.05598422132</v>
       </c>
       <c r="P5" t="n">
         <v>57431.05598422131</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>606.8076918005609</v>
+        <v>602.4391193335417</v>
       </c>
       <c r="C6" t="n">
-        <v>606.8076918005609</v>
+        <v>602.4391193335417</v>
       </c>
       <c r="D6" t="n">
-        <v>606.8076918006191</v>
+        <v>602.4391193335417</v>
       </c>
       <c r="E6" t="n">
-        <v>-297492.9024803996</v>
+        <v>-297718.8085023378</v>
       </c>
       <c r="F6" t="n">
-        <v>69277.73601601864</v>
+        <v>69051.82999408009</v>
       </c>
       <c r="G6" t="n">
-        <v>7500.919535827888</v>
+        <v>7480.982401830414</v>
       </c>
       <c r="H6" t="n">
-        <v>63930.4558657728</v>
+        <v>63910.51873177503</v>
       </c>
       <c r="I6" t="n">
         <v>57498.86527491712</v>
       </c>
       <c r="J6" t="n">
-        <v>-37483.12493383702</v>
+        <v>-37483.12493383699</v>
       </c>
       <c r="K6" t="n">
-        <v>57586.94330264356</v>
+        <v>57586.94330264365</v>
       </c>
       <c r="L6" t="n">
-        <v>1157.406972699173</v>
+        <v>1157.406972698969</v>
       </c>
       <c r="M6" t="n">
-        <v>-71299.08207910808</v>
+        <v>-71299.08207910795</v>
       </c>
       <c r="N6" t="n">
-        <v>65959.95514525189</v>
+        <v>65959.95514525111</v>
       </c>
       <c r="O6" t="n">
-        <v>40671.02786962131</v>
+        <v>40671.02786962138</v>
       </c>
       <c r="P6" t="n">
-        <v>65959.95514525156</v>
+        <v>65959.95514525197</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>102.1480795069689</v>
       </c>
       <c r="L2" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="M2" t="n">
         <v>151.153121766055</v>
       </c>
       <c r="N2" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="O2" t="n">
         <v>151.1531217660551</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="F3" t="n">
-        <v>138.3250385964561</v>
+        <v>138.325038596456</v>
       </c>
       <c r="G3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="H3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="I3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="L3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="M3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="N3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="O3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="P3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.4991255462037</v>
+        <v>582.4991255462036</v>
       </c>
       <c r="F4" t="n">
-        <v>582.4991255462037</v>
+        <v>582.4991255462036</v>
       </c>
       <c r="G4" t="n">
-        <v>582.4991255462037</v>
+        <v>582.4991255462036</v>
       </c>
       <c r="H4" t="n">
-        <v>582.4991255462037</v>
+        <v>582.4991255462036</v>
       </c>
       <c r="I4" t="n">
         <v>608.3150921004158</v>
       </c>
       <c r="J4" t="n">
-        <v>875.0177145983532</v>
+        <v>875.0177145983537</v>
       </c>
       <c r="K4" t="n">
-        <v>875.0177145983533</v>
+        <v>875.0177145983538</v>
       </c>
       <c r="L4" t="n">
-        <v>875.0177145983533</v>
+        <v>875.0177145983538</v>
       </c>
       <c r="M4" t="n">
-        <v>685.9914202149358</v>
+        <v>685.9914202149356</v>
       </c>
       <c r="N4" t="n">
-        <v>685.9914202149361</v>
+        <v>685.9914202149357</v>
       </c>
       <c r="O4" t="n">
         <v>685.9914202149357</v>
       </c>
       <c r="P4" t="n">
-        <v>685.9914202149356</v>
+        <v>685.9914202149357</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.53692041243103</v>
+        <v>70.53692041243106</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61115909453783</v>
+        <v>31.61115909453781</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.53692041243106</v>
+        <v>70.53692041243102</v>
       </c>
       <c r="M2" t="n">
-        <v>49.00504225908611</v>
+        <v>49.00504225908618</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61115909453797</v>
+        <v>31.61115909453798</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>138.3250385964559</v>
+        <v>138.325038596456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.4991255462037</v>
+        <v>582.4991255462036</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.81596655421208</v>
+        <v>25.8159665542122</v>
       </c>
       <c r="J4" t="n">
-        <v>266.7026224979375</v>
+        <v>266.7026224979379</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>393.4728311627862</v>
+        <v>393.4728311627854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.53692041243103</v>
+        <v>70.53692041243106</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61115909453783</v>
+        <v>31.61115909453781</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>582.4991255462037</v>
+        <v>582.4991255462036</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.80100833966951</v>
+        <v>54.80100833966949</v>
       </c>
       <c r="S11" t="n">
         <v>102.1480795069688</v>
@@ -28166,20 +28166,20 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34.66079946463651</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>102.1480795069688</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.45457988153603</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>92.11537934617195</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.80100833966945</v>
+        <v>54.80100833966949</v>
       </c>
       <c r="S14" t="n">
         <v>102.1480795069688</v>
@@ -28406,20 +28406,20 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>92.11537934617252</v>
+      </c>
+      <c r="G15" t="n">
         <v>102.1480795069688</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
@@ -28466,7 +28466,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>92.11537934617189</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.80100833966951</v>
+        <v>54.80100833966949</v>
       </c>
       <c r="S17" t="n">
         <v>172.6849999193999</v>
@@ -28649,16 +28649,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>98.19848690823417</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>96.0649719449067</v>
+        <v>60.91659878351693</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28740,10 +28740,10 @@
         <v>155.5611829038085</v>
       </c>
       <c r="I19" t="n">
-        <v>88.32755666068064</v>
+        <v>135.2597151389699</v>
       </c>
       <c r="J19" t="n">
-        <v>41.82135759071265</v>
+        <v>41.82135759071264</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.26488710478301</v>
+        <v>17.264887104783</v>
       </c>
       <c r="R19" t="n">
         <v>136.8108973275349</v>
       </c>
       <c r="S19" t="n">
-        <v>172.6849999193999</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>172.6849999193999</v>
@@ -28779,7 +28779,7 @@
         <v>172.6849999193999</v>
       </c>
       <c r="V19" t="n">
-        <v>172.6849999193999</v>
+        <v>125.7528414411103</v>
       </c>
       <c r="W19" t="n">
         <v>172.6849999193999</v>
@@ -28788,7 +28788,7 @@
         <v>172.6849999193999</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>172.6849999193999</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.80100833966951</v>
+        <v>54.80100833966949</v>
       </c>
       <c r="S20" t="n">
         <v>172.6849999193999</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.09537017419959</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>40.74390702669854</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>96.0649719449067</v>
       </c>
       <c r="I21" t="n">
         <v>57.45457988153603</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.71350879740527</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28977,10 +28977,10 @@
         <v>155.5611829038085</v>
       </c>
       <c r="I22" t="n">
-        <v>135.25971513897</v>
+        <v>135.2597151389699</v>
       </c>
       <c r="J22" t="n">
-        <v>41.82135759071265</v>
+        <v>41.82135759071264</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.26488710478301</v>
+        <v>17.264887104783</v>
       </c>
       <c r="R22" t="n">
         <v>136.8108973275349</v>
@@ -29010,7 +29010,7 @@
         <v>172.6849999193999</v>
       </c>
       <c r="T22" t="n">
-        <v>172.6849999193999</v>
+        <v>125.7528414411104</v>
       </c>
       <c r="U22" t="n">
         <v>172.6849999193999</v>
@@ -29022,10 +29022,10 @@
         <v>172.6849999193999</v>
       </c>
       <c r="X22" t="n">
-        <v>104.6090157622256</v>
+        <v>172.6849999193999</v>
       </c>
       <c r="Y22" t="n">
-        <v>172.6849999193999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.80100833966951</v>
+        <v>54.80100833966949</v>
       </c>
       <c r="S23" t="n">
         <v>172.6849999193999</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>36.62227596801861</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>57.45457988153603</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.71350879740527</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>53.36334705214952</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29214,10 +29214,10 @@
         <v>155.5611829038085</v>
       </c>
       <c r="I25" t="n">
-        <v>135.25971513897</v>
+        <v>135.2597151389699</v>
       </c>
       <c r="J25" t="n">
-        <v>41.82135759071265</v>
+        <v>41.82135759071264</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.26488710478301</v>
+        <v>17.264887104783</v>
       </c>
       <c r="R25" t="n">
         <v>136.8108973275349</v>
@@ -29250,16 +29250,16 @@
         <v>172.6849999193999</v>
       </c>
       <c r="U25" t="n">
-        <v>172.6849999193999</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>172.6849999193999</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>172.6849999193999</v>
       </c>
       <c r="X25" t="n">
-        <v>125.7528414411105</v>
+        <v>125.7528414411104</v>
       </c>
       <c r="Y25" t="n">
         <v>172.6849999193999</v>
@@ -29302,19 +29302,19 @@
         <v>102.1480795069689</v>
       </c>
       <c r="L26" t="n">
-        <v>88.23220328886481</v>
+        <v>102.1480795069689</v>
       </c>
       <c r="M26" t="n">
-        <v>102.1480795069689</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>102.1480795069689</v>
+        <v>88.23220328886572</v>
       </c>
       <c r="O26" t="n">
         <v>102.1480795069689</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>102.1480795069689</v>
       </c>
       <c r="Q26" t="n">
         <v>102.1480795069689</v>
@@ -29536,13 +29536,13 @@
         <v>102.1480795069689</v>
       </c>
       <c r="K29" t="n">
-        <v>102.1480795069689</v>
+        <v>33.43119494919671</v>
       </c>
       <c r="L29" t="n">
         <v>102.1480795069689</v>
       </c>
       <c r="M29" t="n">
-        <v>33.43119494919551</v>
+        <v>102.1480795069689</v>
       </c>
       <c r="N29" t="n">
         <v>102.1480795069689</v>
@@ -29557,7 +29557,7 @@
         <v>102.1480795069689</v>
       </c>
       <c r="R29" t="n">
-        <v>54.80100833966951</v>
+        <v>54.80100833966949</v>
       </c>
       <c r="S29" t="n">
         <v>102.1480795069689</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="C32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="D32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="E32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="F32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="G32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="H32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="I32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="J32" t="n">
-        <v>102.1480795069689</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="L32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="M32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="N32" t="n">
-        <v>102.1480795069689</v>
+        <v>88.2322032888664</v>
       </c>
       <c r="O32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="P32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.43119494919517</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="R32" t="n">
-        <v>54.80100833966951</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="S32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="T32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="U32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="V32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="W32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="X32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="C34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="D34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="E34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="F34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="G34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="H34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="I34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="J34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="K34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="L34" t="n">
-        <v>102.1480795069679</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="M34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="N34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="O34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="P34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069693</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="R34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="S34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="T34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="U34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="V34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="W34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="X34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.1480795069689</v>
+        <v>102.1480795069688</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.80100833966951</v>
+        <v>54.80100833966949</v>
       </c>
       <c r="S35" t="n">
         <v>151.153121766055</v>
@@ -30162,10 +30162,10 @@
         <v>151.153121766055</v>
       </c>
       <c r="I37" t="n">
-        <v>135.25971513897</v>
+        <v>135.2597151389699</v>
       </c>
       <c r="J37" t="n">
-        <v>41.82135759071265</v>
+        <v>41.82135759071264</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.26488710478301</v>
+        <v>17.264887104783</v>
       </c>
       <c r="R37" t="n">
         <v>136.8108973275349</v>
       </c>
       <c r="S37" t="n">
-        <v>141.181781069803</v>
+        <v>141.1817810698028</v>
       </c>
       <c r="T37" t="n">
         <v>151.153121766055</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="C38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="D38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="E38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="F38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="G38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="H38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="I38" t="n">
         <v>149.6507311229307</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.80100833966951</v>
+        <v>54.80100833966949</v>
       </c>
       <c r="S38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="T38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="U38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="V38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="W38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="X38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
     </row>
     <row r="39">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="C40" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="D40" t="n">
-        <v>141.1817810698029</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="H40" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="I40" t="n">
-        <v>135.25971513897</v>
+        <v>135.2597151389699</v>
       </c>
       <c r="J40" t="n">
-        <v>41.82135759071265</v>
+        <v>41.82135759071264</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.26488710478301</v>
+        <v>17.264887104783</v>
       </c>
       <c r="R40" t="n">
         <v>136.8108973275349</v>
       </c>
       <c r="S40" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="T40" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="U40" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="V40" t="n">
-        <v>151.153121766055</v>
+        <v>141.1817810698039</v>
       </c>
       <c r="W40" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="X40" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.153121766055</v>
+        <v>151.1531217660549</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.80100833966951</v>
+        <v>54.80100833966949</v>
       </c>
       <c r="S41" t="n">
         <v>151.1531217660551</v>
@@ -30636,10 +30636,10 @@
         <v>151.1531217660551</v>
       </c>
       <c r="I43" t="n">
-        <v>135.25971513897</v>
+        <v>135.2597151389699</v>
       </c>
       <c r="J43" t="n">
-        <v>41.82135759071265</v>
+        <v>41.82135759071264</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.26488710478301</v>
+        <v>17.264887104783</v>
       </c>
       <c r="R43" t="n">
         <v>136.8108973275349</v>
@@ -30681,10 +30681,10 @@
         <v>151.1531217660551</v>
       </c>
       <c r="X43" t="n">
-        <v>141.1817810698013</v>
+        <v>151.1531217660551</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.1531217660551</v>
+        <v>141.181781069802</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.80100833966951</v>
+        <v>54.80100833966949</v>
       </c>
       <c r="S44" t="n">
         <v>151.1531217660551</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>141.1817810698013</v>
+        <v>151.1531217660551</v>
       </c>
       <c r="H46" t="n">
         <v>151.1531217660551</v>
       </c>
       <c r="I46" t="n">
-        <v>135.25971513897</v>
+        <v>135.2597151389699</v>
       </c>
       <c r="J46" t="n">
-        <v>41.82135759071265</v>
+        <v>41.82135759071264</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.26488710478301</v>
+        <v>17.264887104783</v>
       </c>
       <c r="R46" t="n">
         <v>136.8108973275349</v>
       </c>
       <c r="S46" t="n">
-        <v>151.1531217660551</v>
+        <v>141.181781069802</v>
       </c>
       <c r="T46" t="n">
         <v>151.1531217660551</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H11" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I11" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J11" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K11" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L11" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M11" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N11" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O11" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P11" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R11" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S11" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T11" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H12" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I12" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J12" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K12" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L12" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M12" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N12" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O12" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P12" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R12" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S12" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T12" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H13" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I13" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J13" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K13" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L13" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M13" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N13" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O13" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P13" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R13" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S13" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T13" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5560805571716825</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H14" t="n">
-        <v>5.694960006134495</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I14" t="n">
-        <v>21.43829568036131</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J14" t="n">
-        <v>47.19664218925013</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K14" t="n">
-        <v>70.73553217432746</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L14" t="n">
-        <v>87.75368252587036</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M14" t="n">
-        <v>97.64288013447226</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N14" t="n">
-        <v>99.22284401753632</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O14" t="n">
-        <v>93.69331797716039</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P14" t="n">
-        <v>79.96507922198447</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.05044426827357</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R14" t="n">
-        <v>34.93089529943573</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S14" t="n">
-        <v>12.67168569654973</v>
+        <v>12.67168569654971</v>
       </c>
       <c r="T14" t="n">
-        <v>2.434242639019041</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04448644457373459</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2975293283018113</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H15" t="n">
-        <v>2.873506933862231</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I15" t="n">
-        <v>10.24388257530359</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J15" t="n">
-        <v>28.10999675854964</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K15" t="n">
-        <v>48.04446175477099</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L15" t="n">
-        <v>64.60170788412793</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M15" t="n">
-        <v>75.38714603506858</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N15" t="n">
-        <v>77.38241946916276</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O15" t="n">
-        <v>70.78979593152788</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P15" t="n">
-        <v>56.8150521737029</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.97935776708736</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R15" t="n">
-        <v>18.47291741859843</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S15" t="n">
-        <v>5.52647677788671</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T15" t="n">
-        <v>1.199251985567388</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01957429791459286</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2494385941903307</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H16" t="n">
-        <v>2.217735864710396</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I16" t="n">
-        <v>7.501298814378311</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J16" t="n">
-        <v>17.63530860925638</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K16" t="n">
-        <v>28.98022939774932</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L16" t="n">
-        <v>37.08471608535154</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M16" t="n">
-        <v>39.10063345112611</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N16" t="n">
-        <v>38.17090778187126</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O16" t="n">
-        <v>35.25701147701148</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P16" t="n">
-        <v>30.16846415552871</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.88708082806487</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R16" t="n">
-        <v>11.21566624423068</v>
+        <v>11.21566624423067</v>
       </c>
       <c r="S16" t="n">
-        <v>4.347034409662398</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T16" t="n">
-        <v>1.065783084267776</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01360574150129078</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H17" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I17" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J17" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K17" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L17" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M17" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N17" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O17" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P17" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R17" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S17" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T17" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H18" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I18" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J18" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K18" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L18" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M18" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N18" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O18" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P18" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R18" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S18" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T18" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H19" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I19" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J19" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K19" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L19" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M19" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N19" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O19" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P19" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R19" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S19" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T19" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H20" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I20" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J20" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K20" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L20" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M20" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N20" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O20" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P20" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R20" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S20" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T20" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H21" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I21" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J21" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K21" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L21" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M21" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N21" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O21" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P21" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R21" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S21" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T21" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H22" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I22" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J22" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K22" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L22" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M22" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N22" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O22" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P22" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R22" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S22" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T22" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H23" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I23" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J23" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K23" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L23" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M23" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N23" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O23" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P23" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R23" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S23" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T23" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H24" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I24" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J24" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K24" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L24" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M24" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N24" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O24" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P24" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R24" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S24" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T24" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H25" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I25" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J25" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K25" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L25" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M25" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N25" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O25" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P25" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R25" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S25" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T25" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H26" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I26" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J26" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K26" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L26" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M26" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N26" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O26" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P26" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R26" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S26" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T26" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H27" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I27" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J27" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K27" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L27" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M27" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N27" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O27" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P27" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R27" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S27" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T27" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H28" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I28" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J28" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K28" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L28" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M28" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N28" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O28" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P28" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R28" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S28" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T28" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H29" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I29" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J29" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K29" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L29" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M29" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N29" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O29" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P29" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q29" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R29" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S29" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T29" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H30" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I30" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J30" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K30" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L30" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M30" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N30" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O30" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P30" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R30" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S30" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T30" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H31" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I31" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J31" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K31" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L31" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M31" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N31" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O31" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P31" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R31" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S31" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T31" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H32" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I32" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J32" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K32" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L32" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M32" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N32" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O32" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P32" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q32" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R32" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S32" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T32" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H33" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I33" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J33" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K33" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L33" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M33" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N33" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O33" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P33" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R33" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S33" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T33" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H34" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I34" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J34" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K34" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L34" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M34" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N34" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O34" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P34" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R34" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S34" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T34" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H35" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I35" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J35" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K35" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L35" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M35" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N35" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O35" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P35" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R35" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S35" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T35" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H36" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I36" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J36" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K36" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L36" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M36" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N36" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O36" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P36" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R36" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S36" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T36" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H37" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I37" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J37" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K37" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L37" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M37" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N37" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O37" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P37" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R37" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S37" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T37" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H38" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I38" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J38" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K38" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L38" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M38" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N38" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O38" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P38" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R38" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S38" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T38" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H39" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I39" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J39" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K39" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L39" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M39" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N39" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O39" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P39" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R39" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S39" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T39" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H40" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I40" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J40" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K40" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L40" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M40" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N40" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O40" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P40" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R40" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S40" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T40" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H41" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I41" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J41" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K41" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L41" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M41" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N41" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O41" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P41" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R41" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S41" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T41" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H42" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I42" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J42" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K42" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L42" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M42" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N42" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O42" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P42" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R42" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S42" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T42" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H43" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I43" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J43" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K43" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L43" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M43" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N43" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O43" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P43" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R43" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S43" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T43" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5560805571716816</v>
+        <v>0.5560805571716819</v>
       </c>
       <c r="H44" t="n">
-        <v>5.694960006134486</v>
+        <v>5.694960006134488</v>
       </c>
       <c r="I44" t="n">
-        <v>21.43829568036127</v>
+        <v>21.43829568036129</v>
       </c>
       <c r="J44" t="n">
-        <v>47.19664218925005</v>
+        <v>47.19664218925008</v>
       </c>
       <c r="K44" t="n">
-        <v>70.73553217432735</v>
+        <v>70.73553217432739</v>
       </c>
       <c r="L44" t="n">
-        <v>87.75368252587022</v>
+        <v>87.75368252587027</v>
       </c>
       <c r="M44" t="n">
-        <v>97.64288013447211</v>
+        <v>97.64288013447216</v>
       </c>
       <c r="N44" t="n">
-        <v>99.22284401753615</v>
+        <v>99.22284401753622</v>
       </c>
       <c r="O44" t="n">
-        <v>93.69331797716023</v>
+        <v>93.69331797716029</v>
       </c>
       <c r="P44" t="n">
-        <v>79.96507922198434</v>
+        <v>79.96507922198438</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.05044426827347</v>
+        <v>60.05044426827351</v>
       </c>
       <c r="R44" t="n">
-        <v>34.93089529943568</v>
+        <v>34.9308952994357</v>
       </c>
       <c r="S44" t="n">
         <v>12.67168569654971</v>
       </c>
       <c r="T44" t="n">
-        <v>2.434242639019037</v>
+        <v>2.434242639019039</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04448644457373452</v>
+        <v>0.04448644457373455</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2975293283018108</v>
+        <v>0.297529328301811</v>
       </c>
       <c r="H45" t="n">
-        <v>2.873506933862226</v>
+        <v>2.873506933862227</v>
       </c>
       <c r="I45" t="n">
-        <v>10.24388257530357</v>
+        <v>10.24388257530358</v>
       </c>
       <c r="J45" t="n">
-        <v>28.1099967585496</v>
+        <v>28.10999675854961</v>
       </c>
       <c r="K45" t="n">
-        <v>48.04446175477091</v>
+        <v>48.04446175477095</v>
       </c>
       <c r="L45" t="n">
-        <v>64.60170788412783</v>
+        <v>64.60170788412788</v>
       </c>
       <c r="M45" t="n">
-        <v>75.38714603506845</v>
+        <v>75.3871460350685</v>
       </c>
       <c r="N45" t="n">
-        <v>77.38241946916263</v>
+        <v>77.38241946916268</v>
       </c>
       <c r="O45" t="n">
-        <v>70.78979593152776</v>
+        <v>70.78979593152781</v>
       </c>
       <c r="P45" t="n">
-        <v>56.81505217370281</v>
+        <v>56.81505217370284</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.97935776708729</v>
+        <v>37.97935776708731</v>
       </c>
       <c r="R45" t="n">
-        <v>18.4729174185984</v>
+        <v>18.47291741859841</v>
       </c>
       <c r="S45" t="n">
-        <v>5.526476777886701</v>
+        <v>5.526476777886705</v>
       </c>
       <c r="T45" t="n">
-        <v>1.199251985567386</v>
+        <v>1.199251985567387</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01957429791459282</v>
+        <v>0.01957429791459284</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2494385941903303</v>
+        <v>0.2494385941903304</v>
       </c>
       <c r="H46" t="n">
-        <v>2.217735864710393</v>
+        <v>2.217735864710394</v>
       </c>
       <c r="I46" t="n">
-        <v>7.501298814378298</v>
+        <v>7.501298814378303</v>
       </c>
       <c r="J46" t="n">
-        <v>17.63530860925635</v>
+        <v>17.63530860925636</v>
       </c>
       <c r="K46" t="n">
-        <v>28.98022939774928</v>
+        <v>28.98022939774929</v>
       </c>
       <c r="L46" t="n">
-        <v>37.08471608535147</v>
+        <v>37.08471608535149</v>
       </c>
       <c r="M46" t="n">
-        <v>39.10063345112604</v>
+        <v>39.10063345112606</v>
       </c>
       <c r="N46" t="n">
-        <v>38.17090778187121</v>
+        <v>38.17090778187123</v>
       </c>
       <c r="O46" t="n">
-        <v>35.25701147701142</v>
+        <v>35.25701147701145</v>
       </c>
       <c r="P46" t="n">
-        <v>30.16846415552866</v>
+        <v>30.16846415552868</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.88708082806484</v>
+        <v>20.88708082806485</v>
       </c>
       <c r="R46" t="n">
         <v>11.21566624423067</v>
       </c>
       <c r="S46" t="n">
-        <v>4.347034409662391</v>
+        <v>4.347034409662394</v>
       </c>
       <c r="T46" t="n">
-        <v>1.065783084267774</v>
+        <v>1.065783084267775</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01360574150129076</v>
+        <v>0.01360574150129077</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>119.9224444850133</v>
+        <v>119.9224444850134</v>
       </c>
       <c r="K11" t="n">
         <v>313.3015645427948</v>
       </c>
       <c r="L11" t="n">
-        <v>439.1530492783411</v>
+        <v>439.1530492783412</v>
       </c>
       <c r="M11" t="n">
-        <v>494.8541591779953</v>
+        <v>395.4930781521245</v>
       </c>
       <c r="N11" t="n">
         <v>481.3757315808854</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>401.7787568386087</v>
       </c>
       <c r="P11" t="n">
-        <v>302.4176758127385</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>155.4365591031593</v>
+        <v>155.4365591031594</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.97277103441439</v>
+        <v>88.97277103441441</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.8531007044565</v>
       </c>
       <c r="L12" t="n">
         <v>434.118723207477</v>
@@ -35498,13 +35498,13 @@
         <v>565.3198263484285</v>
       </c>
       <c r="N12" t="n">
-        <v>582.4991255462037</v>
+        <v>109.2829549245079</v>
       </c>
       <c r="O12" t="n">
-        <v>466.951362380165</v>
+        <v>466.9513623801651</v>
       </c>
       <c r="P12" t="n">
-        <v>168.5993754642396</v>
+        <v>361.9624453814778</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>240.856108117835</v>
       </c>
       <c r="M13" t="n">
-        <v>260.4340726829451</v>
+        <v>260.4340726829452</v>
       </c>
       <c r="N13" t="n">
         <v>259.9375143086384</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>23.43633720818179</v>
+        <v>119.9224444850134</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>313.3015645427948</v>
       </c>
       <c r="L14" t="n">
-        <v>439.1530492783413</v>
+        <v>439.1530492783412</v>
       </c>
       <c r="M14" t="n">
         <v>494.8541591779954</v>
       </c>
       <c r="N14" t="n">
-        <v>481.3757315808855</v>
+        <v>71.58805976125907</v>
       </c>
       <c r="O14" t="n">
-        <v>401.7787568386088</v>
+        <v>401.7787568386087</v>
       </c>
       <c r="P14" t="n">
-        <v>310.4265907937554</v>
+        <v>310.4265907937553</v>
       </c>
       <c r="Q14" t="n">
         <v>155.4365591031594</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.97277103441444</v>
+        <v>88.97277103441441</v>
       </c>
       <c r="K15" t="n">
-        <v>279.8531007044566</v>
+        <v>279.8531007044565</v>
       </c>
       <c r="L15" t="n">
-        <v>230.5092745871481</v>
+        <v>434.118723207477</v>
       </c>
       <c r="M15" t="n">
-        <v>565.3198263484286</v>
+        <v>565.3198263484285</v>
       </c>
       <c r="N15" t="n">
-        <v>582.4991255462037</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>466.9513623801651</v>
       </c>
       <c r="P15" t="n">
-        <v>361.9624453814779</v>
+        <v>361.9624453814778</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.3446403787987</v>
+        <v>109.2829549245077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.32672191625622</v>
+        <v>60.32672191625618</v>
       </c>
       <c r="K16" t="n">
-        <v>165.0719328892065</v>
+        <v>165.0719328892064</v>
       </c>
       <c r="L16" t="n">
-        <v>240.856108117835</v>
+        <v>240.8561081178349</v>
       </c>
       <c r="M16" t="n">
-        <v>260.4340726829452</v>
+        <v>260.4340726829451</v>
       </c>
       <c r="N16" t="n">
-        <v>259.9375143086385</v>
+        <v>259.9375143086384</v>
       </c>
       <c r="O16" t="n">
         <v>236.8633197675052</v>
       </c>
       <c r="P16" t="n">
-        <v>195.9210726808186</v>
+        <v>195.9210726808185</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.88319240218587</v>
+        <v>84.88319240218581</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>119.9224444850133</v>
+        <v>119.9224444850134</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>313.3015645427948</v>
       </c>
       <c r="L17" t="n">
-        <v>439.1530492783411</v>
+        <v>439.1530492783412</v>
       </c>
       <c r="M17" t="n">
-        <v>398.3680519011645</v>
+        <v>85.06648735836916</v>
       </c>
       <c r="N17" t="n">
         <v>481.3757315808854</v>
@@ -35902,7 +35902,7 @@
         <v>310.4265907937553</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.4365591031593</v>
+        <v>155.4365591031594</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.97277103441439</v>
+        <v>88.97277103441441</v>
       </c>
       <c r="K18" t="n">
-        <v>279.8531007044564</v>
+        <v>279.8531007044565</v>
       </c>
       <c r="L18" t="n">
-        <v>434.118723207477</v>
+        <v>346.0570377531866</v>
       </c>
       <c r="M18" t="n">
-        <v>361.7103777280998</v>
+        <v>565.3198263484285</v>
       </c>
       <c r="N18" t="n">
-        <v>582.4991255462037</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>466.9513623801651</v>
       </c>
       <c r="P18" t="n">
         <v>361.9624453814778</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.3446403787986</v>
+        <v>197.3446403787987</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.92385338223757</v>
+        <v>62.9238533822376</v>
       </c>
       <c r="L19" t="n">
         <v>138.7080286108661</v>
@@ -36054,10 +36054,10 @@
         <v>157.7894348016696</v>
       </c>
       <c r="O19" t="n">
-        <v>134.7152402605363</v>
+        <v>134.7152402605364</v>
       </c>
       <c r="P19" t="n">
-        <v>93.77299317384967</v>
+        <v>93.77299317384968</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>119.9224444850133</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>313.3015645427948</v>
       </c>
       <c r="L20" t="n">
-        <v>439.1530492783411</v>
+        <v>439.1530492783412</v>
       </c>
       <c r="M20" t="n">
-        <v>494.8541591779953</v>
+        <v>494.8541591779954</v>
       </c>
       <c r="N20" t="n">
-        <v>481.3757315808854</v>
+        <v>191.5105042462726</v>
       </c>
       <c r="O20" t="n">
         <v>401.7787568386087</v>
       </c>
       <c r="P20" t="n">
-        <v>56.07547807728932</v>
+        <v>310.4265907937553</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>155.4365591031594</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.97277103441439</v>
+        <v>88.97277103441441</v>
       </c>
       <c r="K21" t="n">
-        <v>279.8531007044564</v>
+        <v>279.8531007044565</v>
       </c>
       <c r="L21" t="n">
         <v>434.118723207477</v>
@@ -36209,16 +36209,16 @@
         <v>565.3198263484285</v>
       </c>
       <c r="N21" t="n">
-        <v>109.2829549245086</v>
+        <v>378.8896769258744</v>
       </c>
       <c r="O21" t="n">
-        <v>466.951362380165</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>361.9624453814778</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>197.3446403787987</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.92385338223757</v>
+        <v>62.9238533822376</v>
       </c>
       <c r="L22" t="n">
         <v>138.7080286108661</v>
@@ -36291,10 +36291,10 @@
         <v>157.7894348016696</v>
       </c>
       <c r="O22" t="n">
-        <v>134.7152402605363</v>
+        <v>134.7152402605364</v>
       </c>
       <c r="P22" t="n">
-        <v>93.77299317384967</v>
+        <v>93.77299317384968</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>119.9224444850133</v>
+        <v>119.9224444850134</v>
       </c>
       <c r="K23" t="n">
         <v>313.3015645427948</v>
       </c>
       <c r="L23" t="n">
-        <v>439.1530492783411</v>
+        <v>439.1530492783412</v>
       </c>
       <c r="M23" t="n">
-        <v>494.8541591779953</v>
+        <v>494.8541591779954</v>
       </c>
       <c r="N23" t="n">
         <v>481.3757315808854</v>
       </c>
       <c r="O23" t="n">
-        <v>401.7787568386087</v>
+        <v>94.21188188010557</v>
       </c>
       <c r="P23" t="n">
-        <v>2.859715835252659</v>
+        <v>310.4265907937553</v>
       </c>
       <c r="Q23" t="n">
-        <v>155.4365591031593</v>
+        <v>155.4365591031594</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>279.8531007044564</v>
+        <v>279.8531007044565</v>
       </c>
       <c r="L24" t="n">
         <v>434.118723207477</v>
       </c>
       <c r="M24" t="n">
-        <v>565.3198263484285</v>
+        <v>74.63934374160145</v>
       </c>
       <c r="N24" t="n">
-        <v>465.0943278227248</v>
+        <v>593.8123650480738</v>
       </c>
       <c r="O24" t="n">
-        <v>466.951362380165</v>
+        <v>466.9513623801651</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>361.9624453814778</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.3446403787986</v>
+        <v>197.3446403787987</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.92385338223757</v>
+        <v>62.9238533822376</v>
       </c>
       <c r="L25" t="n">
         <v>138.7080286108661</v>
@@ -36528,10 +36528,10 @@
         <v>157.7894348016696</v>
       </c>
       <c r="O25" t="n">
-        <v>134.7152402605363</v>
+        <v>134.7152402605364</v>
       </c>
       <c r="P25" t="n">
-        <v>93.77299317384967</v>
+        <v>93.77299317384968</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>222.0705239919822</v>
       </c>
       <c r="K26" t="n">
-        <v>415.4496440497636</v>
+        <v>415.4496440497637</v>
       </c>
       <c r="L26" t="n">
-        <v>527.385252567206</v>
+        <v>541.3011287853101</v>
       </c>
       <c r="M26" t="n">
-        <v>597.0022386849641</v>
+        <v>494.8541591779954</v>
       </c>
       <c r="N26" t="n">
-        <v>583.5238110878543</v>
+        <v>569.6079348697511</v>
       </c>
       <c r="O26" t="n">
         <v>503.9268363455776</v>
       </c>
       <c r="P26" t="n">
-        <v>310.4265907937553</v>
+        <v>412.5746703007242</v>
       </c>
       <c r="Q26" t="n">
         <v>257.5846386101282</v>
       </c>
       <c r="R26" t="n">
-        <v>47.34707116729935</v>
+        <v>47.34707116729937</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.97277103441439</v>
+        <v>88.97277103441441</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>279.8531007044565</v>
       </c>
       <c r="L27" t="n">
         <v>434.118723207477</v>
@@ -36686,13 +36686,13 @@
         <v>593.8123650480738</v>
       </c>
       <c r="O27" t="n">
-        <v>466.951362380165</v>
+        <v>466.9513623801651</v>
       </c>
       <c r="P27" t="n">
-        <v>355.4939299151712</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>75.64082921071439</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.3267219162562</v>
+        <v>60.32672191625622</v>
       </c>
       <c r="K28" t="n">
         <v>165.0719328892064</v>
@@ -36762,16 +36762,16 @@
         <v>260.4340726829452</v>
       </c>
       <c r="N28" t="n">
-        <v>259.9375143086384</v>
+        <v>259.9375143086385</v>
       </c>
       <c r="O28" t="n">
         <v>236.8633197675052</v>
       </c>
       <c r="P28" t="n">
-        <v>195.9210726808185</v>
+        <v>195.9210726808186</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.88319240218584</v>
+        <v>84.88319240218586</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>222.0705239919822</v>
       </c>
       <c r="K29" t="n">
-        <v>415.4496440497636</v>
+        <v>346.7327594919915</v>
       </c>
       <c r="L29" t="n">
-        <v>541.30112878531</v>
+        <v>541.3011287853101</v>
       </c>
       <c r="M29" t="n">
-        <v>528.2853541271908</v>
+        <v>597.0022386849643</v>
       </c>
       <c r="N29" t="n">
         <v>583.5238110878543</v>
@@ -36847,7 +36847,7 @@
         <v>503.9268363455776</v>
       </c>
       <c r="P29" t="n">
-        <v>412.5746703007241</v>
+        <v>412.5746703007242</v>
       </c>
       <c r="Q29" t="n">
         <v>257.5846386101282</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.97277103441439</v>
+        <v>88.97277103441441</v>
       </c>
       <c r="K30" t="n">
-        <v>279.8531007044564</v>
+        <v>230.3055673623717</v>
       </c>
       <c r="L30" t="n">
-        <v>434.118723207477</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>565.3198263484285</v>
@@ -36923,13 +36923,13 @@
         <v>593.8123650480738</v>
       </c>
       <c r="O30" t="n">
-        <v>345.2475512120814</v>
+        <v>466.9513623801651</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>361.9624453814778</v>
       </c>
       <c r="Q30" t="n">
-        <v>197.3446403787986</v>
+        <v>197.3446403787987</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.3267219162562</v>
+        <v>60.32672191625622</v>
       </c>
       <c r="K31" t="n">
         <v>165.0719328892064</v>
@@ -36999,16 +36999,16 @@
         <v>260.4340726829452</v>
       </c>
       <c r="N31" t="n">
-        <v>259.9375143086384</v>
+        <v>259.9375143086385</v>
       </c>
       <c r="O31" t="n">
         <v>236.8633197675052</v>
       </c>
       <c r="P31" t="n">
-        <v>195.9210726808185</v>
+        <v>195.9210726808186</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.88319240218584</v>
+        <v>84.88319240218586</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>222.0705239919822</v>
+        <v>119.9224444850134</v>
       </c>
       <c r="K32" t="n">
         <v>415.4496440497636</v>
@@ -37078,7 +37078,7 @@
         <v>597.0022386849641</v>
       </c>
       <c r="N32" t="n">
-        <v>583.5238110878543</v>
+        <v>569.6079348697518</v>
       </c>
       <c r="O32" t="n">
         <v>503.9268363455776</v>
@@ -37087,10 +37087,10 @@
         <v>412.5746703007242</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.8677540523545</v>
+        <v>257.5846386101282</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>47.34707116729933</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>88.97277103441441</v>
       </c>
       <c r="K33" t="n">
-        <v>279.8531007044564</v>
+        <v>279.8531007044565</v>
       </c>
       <c r="L33" t="n">
         <v>434.118723207477</v>
@@ -37157,16 +37157,16 @@
         <v>565.3198263484285</v>
       </c>
       <c r="N33" t="n">
-        <v>593.8123650480738</v>
+        <v>110.1461084985118</v>
       </c>
       <c r="O33" t="n">
-        <v>466.951362380165</v>
+        <v>466.9513623801651</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>361.9624453814778</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.6136002451293</v>
+        <v>197.3446403787987</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.32672191625623</v>
+        <v>60.32672191625618</v>
       </c>
       <c r="K34" t="n">
         <v>165.0719328892064</v>
       </c>
       <c r="L34" t="n">
-        <v>240.856108117834</v>
+        <v>240.8561081178349</v>
       </c>
       <c r="M34" t="n">
-        <v>260.4340726829452</v>
+        <v>260.4340726829451</v>
       </c>
       <c r="N34" t="n">
-        <v>259.9375143086385</v>
+        <v>259.9375143086384</v>
       </c>
       <c r="O34" t="n">
         <v>236.8633197675052</v>
       </c>
       <c r="P34" t="n">
-        <v>195.9210726808185</v>
+        <v>195.921072680819</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.88319240218587</v>
+        <v>84.88319240218581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>119.9224444850133</v>
+        <v>119.9224444850134</v>
       </c>
       <c r="K35" t="n">
         <v>313.3015645427948</v>
       </c>
       <c r="L35" t="n">
-        <v>439.1530492783411</v>
+        <v>439.1530492783412</v>
       </c>
       <c r="M35" t="n">
-        <v>494.8541591779953</v>
+        <v>494.8541591779954</v>
       </c>
       <c r="N35" t="n">
         <v>481.3757315808854</v>
@@ -37324,7 +37324,7 @@
         <v>310.4265907937553</v>
       </c>
       <c r="Q35" t="n">
-        <v>155.4365591031593</v>
+        <v>155.4365591031594</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>279.8531007044564</v>
+        <v>279.8531007044565</v>
       </c>
       <c r="L36" t="n">
-        <v>236.7698780711279</v>
+        <v>434.118723207477</v>
       </c>
       <c r="M36" t="n">
-        <v>565.3198263484285</v>
+        <v>170.6263408332808</v>
       </c>
       <c r="N36" t="n">
         <v>593.8123650480738</v>
       </c>
       <c r="O36" t="n">
-        <v>466.951362380165</v>
+        <v>466.9513623801651</v>
       </c>
       <c r="P36" t="n">
         <v>361.9624453814778</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>197.3446403787987</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.92385338223757</v>
+        <v>62.9238533822376</v>
       </c>
       <c r="L37" t="n">
         <v>138.7080286108661</v>
@@ -37476,10 +37476,10 @@
         <v>157.7894348016696</v>
       </c>
       <c r="O37" t="n">
-        <v>134.7152402605363</v>
+        <v>134.7152402605364</v>
       </c>
       <c r="P37" t="n">
-        <v>93.77299317384967</v>
+        <v>93.77299317384968</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>119.9224444850133</v>
+        <v>119.9224444850134</v>
       </c>
       <c r="K38" t="n">
-        <v>313.3015645427965</v>
+        <v>313.3015645427948</v>
       </c>
       <c r="L38" t="n">
-        <v>439.1530492783411</v>
+        <v>439.1530492783415</v>
       </c>
       <c r="M38" t="n">
-        <v>494.8541591779953</v>
+        <v>494.8541591779954</v>
       </c>
       <c r="N38" t="n">
         <v>481.3757315808854</v>
@@ -37561,7 +37561,7 @@
         <v>310.4265907937553</v>
       </c>
       <c r="Q38" t="n">
-        <v>155.4365591031593</v>
+        <v>155.4365591031594</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>279.8531007044564</v>
+        <v>279.8531007044565</v>
       </c>
       <c r="L39" t="n">
         <v>434.118723207477</v>
@@ -37634,13 +37634,13 @@
         <v>593.8123650480738</v>
       </c>
       <c r="O39" t="n">
-        <v>466.951362380165</v>
+        <v>72.25787686501752</v>
       </c>
       <c r="P39" t="n">
-        <v>164.6136002451289</v>
+        <v>361.9624453814778</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>197.3446403787987</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.92385338223757</v>
+        <v>62.9238533822376</v>
       </c>
       <c r="L40" t="n">
         <v>138.7080286108661</v>
@@ -37713,10 +37713,10 @@
         <v>157.7894348016696</v>
       </c>
       <c r="O40" t="n">
-        <v>134.7152402605363</v>
+        <v>134.7152402605364</v>
       </c>
       <c r="P40" t="n">
-        <v>93.77299317384967</v>
+        <v>93.77299317384968</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>119.9224444850133</v>
+        <v>119.9224444850134</v>
       </c>
       <c r="K41" t="n">
-        <v>313.3015645427948</v>
+        <v>313.3015645427951</v>
       </c>
       <c r="L41" t="n">
-        <v>439.1530492783411</v>
+        <v>439.1530492783412</v>
       </c>
       <c r="M41" t="n">
-        <v>494.8541591779953</v>
+        <v>494.8541591779954</v>
       </c>
       <c r="N41" t="n">
         <v>481.3757315808854</v>
@@ -37795,10 +37795,10 @@
         <v>401.7787568386087</v>
       </c>
       <c r="P41" t="n">
-        <v>310.4265907937556</v>
+        <v>310.4265907937553</v>
       </c>
       <c r="Q41" t="n">
-        <v>155.4365591031593</v>
+        <v>155.4365591031594</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.97277103441439</v>
+        <v>88.97277103441441</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>263.1382065350594</v>
       </c>
       <c r="L42" t="n">
         <v>434.118723207477</v>
@@ -37871,13 +37871,13 @@
         <v>593.8123650480738</v>
       </c>
       <c r="O42" t="n">
-        <v>466.951362380165</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>158.1492895363722</v>
+        <v>361.9624453814778</v>
       </c>
       <c r="Q42" t="n">
-        <v>197.3446403787986</v>
+        <v>197.3446403787987</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.92385338223757</v>
+        <v>62.9238533822376</v>
       </c>
       <c r="L43" t="n">
         <v>138.7080286108661</v>
@@ -37950,10 +37950,10 @@
         <v>157.7894348016696</v>
       </c>
       <c r="O43" t="n">
-        <v>134.7152402605363</v>
+        <v>134.7152402605364</v>
       </c>
       <c r="P43" t="n">
-        <v>93.77299317384967</v>
+        <v>93.77299317384968</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>119.9224444850133</v>
+        <v>119.9224444850134</v>
       </c>
       <c r="K44" t="n">
         <v>313.3015645427948</v>
       </c>
       <c r="L44" t="n">
-        <v>439.1530492783411</v>
+        <v>439.1530492783412</v>
       </c>
       <c r="M44" t="n">
-        <v>494.8541591779953</v>
+        <v>494.8541591779954</v>
       </c>
       <c r="N44" t="n">
         <v>481.3757315808854</v>
@@ -38035,7 +38035,7 @@
         <v>310.4265907937553</v>
       </c>
       <c r="Q44" t="n">
-        <v>155.4365591031593</v>
+        <v>155.4365591031594</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.97277103441439</v>
+        <v>88.97277103441441</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>279.8531007044565</v>
       </c>
       <c r="L45" t="n">
-        <v>230.3055673623714</v>
+        <v>434.118723207477</v>
       </c>
       <c r="M45" t="n">
         <v>565.3198263484285</v>
       </c>
       <c r="N45" t="n">
-        <v>593.8123650480738</v>
+        <v>110.1461084985118</v>
       </c>
       <c r="O45" t="n">
-        <v>466.951362380165</v>
+        <v>466.9513623801651</v>
       </c>
       <c r="P45" t="n">
         <v>361.9624453814778</v>
       </c>
       <c r="Q45" t="n">
-        <v>197.3446403787986</v>
+        <v>197.3446403787987</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.92385338223757</v>
+        <v>62.9238533822376</v>
       </c>
       <c r="L46" t="n">
         <v>138.7080286108661</v>
@@ -38187,10 +38187,10 @@
         <v>157.7894348016696</v>
       </c>
       <c r="O46" t="n">
-        <v>134.7152402605363</v>
+        <v>134.7152402605364</v>
       </c>
       <c r="P46" t="n">
-        <v>93.77299317384967</v>
+        <v>93.77299317384968</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
